--- a/od_cleaned.xlsx
+++ b/od_cleaned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -782,35 +782,6 @@
   </si>
   <si>
     <t>female</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>glaucoma</t>
-  </si>
-  <si>
-    <t>the eye keeps the lens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystalline lens has been removed </t>
-  </si>
-  <si>
-    <t>&lt;bound method Series.mode of 0      1.0
-1      0.0
-2      0.0
-3      0.0
-4      0.0
-      ... 
-482    0.0
-483    0.0
-484    1.0
-485    1.0
-486    1.0
-Name: Phakic/Pseudophakic, Length: 487, dtype: object&gt;</t>
   </si>
   <si>
     <t>Refractive_Defect</t>
@@ -1180,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1188,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -1242,8 +1213,8 @@
       <c r="C3" t="s">
         <v>254</v>
       </c>
-      <c r="D3" t="s">
-        <v>256</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1254,8 +1225,8 @@
       <c r="G3">
         <v>156</v>
       </c>
-      <c r="H3" t="s">
-        <v>260</v>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -1277,8 +1248,8 @@
       <c r="C4" t="s">
         <v>255</v>
       </c>
-      <c r="D4" t="s">
-        <v>257</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1.75</v>
@@ -1289,8 +1260,8 @@
       <c r="G4">
         <v>120</v>
       </c>
-      <c r="H4" t="s">
-        <v>260</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>16</v>
@@ -1312,8 +1283,8 @@
       <c r="C5" t="s">
         <v>254</v>
       </c>
-      <c r="D5" t="s">
-        <v>256</v>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>-1.25</v>
@@ -1324,8 +1295,8 @@
       <c r="G5">
         <v>150</v>
       </c>
-      <c r="H5" t="s">
-        <v>260</v>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5">
         <v>13</v>
@@ -1347,8 +1318,8 @@
       <c r="C6" t="s">
         <v>255</v>
       </c>
-      <c r="D6" t="s">
-        <v>258</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1359,8 +1330,8 @@
       <c r="G6">
         <v>102</v>
       </c>
-      <c r="H6" t="s">
-        <v>260</v>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6">
         <v>16</v>
@@ -1382,8 +1353,8 @@
       <c r="C7" t="s">
         <v>255</v>
       </c>
-      <c r="D7" t="s">
-        <v>257</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -1394,8 +1365,8 @@
       <c r="G7">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
-        <v>260</v>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1417,8 +1388,8 @@
       <c r="C8" t="s">
         <v>255</v>
       </c>
-      <c r="D8" t="s">
-        <v>256</v>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0.75</v>
@@ -1429,8 +1400,8 @@
       <c r="G8">
         <v>49</v>
       </c>
-      <c r="H8" t="s">
-        <v>260</v>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8">
         <v>14</v>
@@ -1452,8 +1423,8 @@
       <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="D9" t="s">
-        <v>256</v>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1.25</v>
@@ -1464,8 +1435,8 @@
       <c r="G9">
         <v>180</v>
       </c>
-      <c r="H9" t="s">
-        <v>261</v>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>18</v>
@@ -1487,8 +1458,8 @@
       <c r="C10" t="s">
         <v>255</v>
       </c>
-      <c r="D10" t="s">
-        <v>256</v>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10">
         <v>-0.25</v>
@@ -1499,8 +1470,8 @@
       <c r="G10">
         <v>175</v>
       </c>
-      <c r="H10" t="s">
-        <v>260</v>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>21</v>
@@ -1522,8 +1493,8 @@
       <c r="C11" t="s">
         <v>254</v>
       </c>
-      <c r="D11" t="s">
-        <v>256</v>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0.75</v>
@@ -1534,8 +1505,8 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
-        <v>259</v>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1557,8 +1528,8 @@
       <c r="C12" t="s">
         <v>255</v>
       </c>
-      <c r="D12" t="s">
-        <v>256</v>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12">
         <v>3.5</v>
@@ -1569,8 +1540,8 @@
       <c r="G12">
         <v>135</v>
       </c>
-      <c r="H12" t="s">
-        <v>259</v>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12">
         <v>13</v>
@@ -1592,8 +1563,8 @@
       <c r="C13" t="s">
         <v>255</v>
       </c>
-      <c r="D13" t="s">
-        <v>256</v>
+      <c r="D13">
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1604,8 +1575,8 @@
       <c r="G13">
         <v>110</v>
       </c>
-      <c r="H13" t="s">
-        <v>260</v>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13">
         <v>22</v>
@@ -1627,8 +1598,8 @@
       <c r="C14" t="s">
         <v>255</v>
       </c>
-      <c r="D14" t="s">
-        <v>256</v>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14">
         <v>-0.25</v>
@@ -1639,8 +1610,8 @@
       <c r="G14">
         <v>70</v>
       </c>
-      <c r="H14" t="s">
-        <v>260</v>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14">
         <v>9</v>
@@ -1662,8 +1633,8 @@
       <c r="C15" t="s">
         <v>255</v>
       </c>
-      <c r="D15" t="s">
-        <v>256</v>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0.25</v>
@@ -1674,8 +1645,8 @@
       <c r="G15">
         <v>118</v>
       </c>
-      <c r="H15" t="s">
-        <v>260</v>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15">
         <v>19</v>
@@ -1697,8 +1668,8 @@
       <c r="C16" t="s">
         <v>254</v>
       </c>
-      <c r="D16" t="s">
-        <v>257</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0.75</v>
@@ -1709,8 +1680,8 @@
       <c r="G16">
         <v>80</v>
       </c>
-      <c r="H16" t="s">
-        <v>260</v>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
         <v>24</v>
@@ -1732,8 +1703,8 @@
       <c r="C17" t="s">
         <v>255</v>
       </c>
-      <c r="D17" t="s">
-        <v>257</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1744,8 +1715,8 @@
       <c r="G17">
         <v>120</v>
       </c>
-      <c r="H17" t="s">
-        <v>260</v>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
         <v>16</v>
@@ -1767,8 +1738,8 @@
       <c r="C18" t="s">
         <v>255</v>
       </c>
-      <c r="D18" t="s">
-        <v>256</v>
+      <c r="D18">
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1.25</v>
@@ -1779,8 +1750,8 @@
       <c r="G18">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
-        <v>260</v>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
         <v>19</v>
@@ -1802,8 +1773,8 @@
       <c r="C19" t="s">
         <v>254</v>
       </c>
-      <c r="D19" t="s">
-        <v>256</v>
+      <c r="D19">
+        <v>2</v>
       </c>
       <c r="E19">
         <v>3.25</v>
@@ -1814,8 +1785,8 @@
       <c r="G19">
         <v>88</v>
       </c>
-      <c r="H19" t="s">
-        <v>260</v>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
         <v>18</v>
@@ -1837,8 +1808,8 @@
       <c r="C20" t="s">
         <v>255</v>
       </c>
-      <c r="D20" t="s">
-        <v>256</v>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="E20">
         <v>3.5</v>
@@ -1849,8 +1820,8 @@
       <c r="G20">
         <v>102</v>
       </c>
-      <c r="H20" t="s">
-        <v>259</v>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20">
         <v>17</v>
@@ -1872,8 +1843,8 @@
       <c r="C21" t="s">
         <v>255</v>
       </c>
-      <c r="D21" t="s">
-        <v>256</v>
+      <c r="D21">
+        <v>2</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1884,8 +1855,8 @@
       <c r="G21">
         <v>105</v>
       </c>
-      <c r="H21" t="s">
-        <v>260</v>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21">
         <v>16</v>
@@ -1907,8 +1878,8 @@
       <c r="C22" t="s">
         <v>255</v>
       </c>
-      <c r="D22" t="s">
-        <v>256</v>
+      <c r="D22">
+        <v>2</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1919,8 +1890,8 @@
       <c r="G22">
         <v>172</v>
       </c>
-      <c r="H22" t="s">
-        <v>260</v>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
         <v>17</v>
@@ -1942,8 +1913,8 @@
       <c r="C23" t="s">
         <v>255</v>
       </c>
-      <c r="D23" t="s">
-        <v>256</v>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="E23">
         <v>0.25</v>
@@ -1954,8 +1925,8 @@
       <c r="G23">
         <v>80</v>
       </c>
-      <c r="H23" t="s">
-        <v>260</v>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23">
         <v>18</v>
@@ -1977,8 +1948,8 @@
       <c r="C24" t="s">
         <v>254</v>
       </c>
-      <c r="D24" t="s">
-        <v>257</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -1989,8 +1960,8 @@
       <c r="G24">
         <v>85</v>
       </c>
-      <c r="H24" t="s">
-        <v>260</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24">
         <v>16</v>
@@ -2012,8 +1983,8 @@
       <c r="C25" t="s">
         <v>255</v>
       </c>
-      <c r="D25" t="s">
-        <v>256</v>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25">
         <v>-1.25</v>
@@ -2024,8 +1995,8 @@
       <c r="G25">
         <v>180</v>
       </c>
-      <c r="H25" t="s">
-        <v>260</v>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25">
         <v>16</v>
@@ -2047,8 +2018,8 @@
       <c r="C26" t="s">
         <v>255</v>
       </c>
-      <c r="D26" t="s">
-        <v>256</v>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2059,8 +2030,8 @@
       <c r="G26">
         <v>80</v>
       </c>
-      <c r="H26" t="s">
-        <v>259</v>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26">
         <v>16</v>
@@ -2082,8 +2053,8 @@
       <c r="C27" t="s">
         <v>255</v>
       </c>
-      <c r="D27" t="s">
-        <v>256</v>
+      <c r="D27">
+        <v>2</v>
       </c>
       <c r="E27">
         <v>3.75</v>
@@ -2094,8 +2065,8 @@
       <c r="G27">
         <v>79</v>
       </c>
-      <c r="H27" t="s">
-        <v>259</v>
+      <c r="H27">
+        <v>1</v>
       </c>
       <c r="I27">
         <v>17</v>
@@ -2117,8 +2088,8 @@
       <c r="C28" t="s">
         <v>254</v>
       </c>
-      <c r="D28" t="s">
-        <v>256</v>
+      <c r="D28">
+        <v>2</v>
       </c>
       <c r="E28">
         <v>2.25</v>
@@ -2129,8 +2100,8 @@
       <c r="G28">
         <v>85</v>
       </c>
-      <c r="H28" t="s">
-        <v>259</v>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28">
         <v>19</v>
@@ -2152,8 +2123,8 @@
       <c r="C29" t="s">
         <v>254</v>
       </c>
-      <c r="D29" t="s">
-        <v>256</v>
+      <c r="D29">
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2164,8 +2135,8 @@
       <c r="G29">
         <v>100</v>
       </c>
-      <c r="H29" t="s">
-        <v>260</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
         <v>17</v>
@@ -2187,8 +2158,8 @@
       <c r="C30" t="s">
         <v>254</v>
       </c>
-      <c r="D30" t="s">
-        <v>256</v>
+      <c r="D30">
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1.75</v>
@@ -2199,8 +2170,8 @@
       <c r="G30">
         <v>90</v>
       </c>
-      <c r="H30" t="s">
-        <v>259</v>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30">
         <v>18</v>
@@ -2222,8 +2193,8 @@
       <c r="C31" t="s">
         <v>255</v>
       </c>
-      <c r="D31" t="s">
-        <v>257</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0.25</v>
@@ -2234,8 +2205,8 @@
       <c r="G31">
         <v>100</v>
       </c>
-      <c r="H31" t="s">
-        <v>260</v>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
         <v>16</v>
@@ -2257,8 +2228,8 @@
       <c r="C32" t="s">
         <v>255</v>
       </c>
-      <c r="D32" t="s">
-        <v>256</v>
+      <c r="D32">
+        <v>2</v>
       </c>
       <c r="E32">
         <v>-0.25</v>
@@ -2269,8 +2240,8 @@
       <c r="G32">
         <v>155</v>
       </c>
-      <c r="H32" t="s">
-        <v>260</v>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32">
         <v>17</v>
@@ -2292,8 +2263,8 @@
       <c r="C33" t="s">
         <v>255</v>
       </c>
-      <c r="D33" t="s">
-        <v>256</v>
+      <c r="D33">
+        <v>2</v>
       </c>
       <c r="E33">
         <v>-2.5</v>
@@ -2304,8 +2275,8 @@
       <c r="G33">
         <v>100</v>
       </c>
-      <c r="H33" t="s">
-        <v>259</v>
+      <c r="H33">
+        <v>1</v>
       </c>
       <c r="I33">
         <v>15</v>
@@ -2327,8 +2298,8 @@
       <c r="C34" t="s">
         <v>255</v>
       </c>
-      <c r="D34" t="s">
-        <v>256</v>
+      <c r="D34">
+        <v>2</v>
       </c>
       <c r="E34">
         <v>-1.75</v>
@@ -2339,8 +2310,8 @@
       <c r="G34">
         <v>95</v>
       </c>
-      <c r="H34" t="s">
-        <v>260</v>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34">
         <v>15</v>
@@ -2362,8 +2333,8 @@
       <c r="C35" t="s">
         <v>254</v>
       </c>
-      <c r="D35" t="s">
-        <v>256</v>
+      <c r="D35">
+        <v>2</v>
       </c>
       <c r="E35">
         <v>-1.25</v>
@@ -2374,8 +2345,8 @@
       <c r="G35">
         <v>60</v>
       </c>
-      <c r="H35" t="s">
-        <v>260</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35">
         <v>17</v>
@@ -2397,8 +2368,8 @@
       <c r="C36" t="s">
         <v>254</v>
       </c>
-      <c r="D36" t="s">
-        <v>256</v>
+      <c r="D36">
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0.5</v>
@@ -2409,8 +2380,8 @@
       <c r="G36">
         <v>180</v>
       </c>
-      <c r="H36" t="s">
-        <v>260</v>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36">
         <v>14</v>
@@ -2432,8 +2403,8 @@
       <c r="C37" t="s">
         <v>255</v>
       </c>
-      <c r="D37" t="s">
-        <v>256</v>
+      <c r="D37">
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1.75</v>
@@ -2444,8 +2415,8 @@
       <c r="G37">
         <v>100</v>
       </c>
-      <c r="H37" t="s">
-        <v>260</v>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
         <v>16</v>
@@ -2467,8 +2438,8 @@
       <c r="C38" t="s">
         <v>254</v>
       </c>
-      <c r="D38" t="s">
-        <v>256</v>
+      <c r="D38">
+        <v>2</v>
       </c>
       <c r="E38">
         <v>1.5</v>
@@ -2479,8 +2450,8 @@
       <c r="G38">
         <v>95</v>
       </c>
-      <c r="H38" t="s">
-        <v>259</v>
+      <c r="H38">
+        <v>1</v>
       </c>
       <c r="I38">
         <v>16</v>
@@ -2502,8 +2473,8 @@
       <c r="C39" t="s">
         <v>254</v>
       </c>
-      <c r="D39" t="s">
-        <v>256</v>
+      <c r="D39">
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1.5</v>
@@ -2514,8 +2485,8 @@
       <c r="G39">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
-        <v>260</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39">
         <v>22</v>
@@ -2537,8 +2508,8 @@
       <c r="C40" t="s">
         <v>255</v>
       </c>
-      <c r="D40" t="s">
-        <v>257</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
         <v>-1.5</v>
@@ -2549,8 +2520,8 @@
       <c r="G40">
         <v>55</v>
       </c>
-      <c r="H40" t="s">
-        <v>260</v>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40">
         <v>16</v>
@@ -2572,8 +2543,8 @@
       <c r="C41" t="s">
         <v>255</v>
       </c>
-      <c r="D41" t="s">
-        <v>258</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41">
         <v>-0.75</v>
@@ -2584,8 +2555,8 @@
       <c r="G41">
         <v>101</v>
       </c>
-      <c r="H41" t="s">
-        <v>260</v>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41">
         <v>13</v>
@@ -2607,8 +2578,8 @@
       <c r="C42" t="s">
         <v>254</v>
       </c>
-      <c r="D42" t="s">
-        <v>256</v>
+      <c r="D42">
+        <v>2</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -2619,8 +2590,8 @@
       <c r="G42">
         <v>130</v>
       </c>
-      <c r="H42" t="s">
-        <v>260</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
         <v>16</v>
@@ -2642,8 +2613,8 @@
       <c r="C43" t="s">
         <v>255</v>
       </c>
-      <c r="D43" t="s">
-        <v>256</v>
+      <c r="D43">
+        <v>2</v>
       </c>
       <c r="E43">
         <v>-5.5</v>
@@ -2654,8 +2625,8 @@
       <c r="G43">
         <v>77</v>
       </c>
-      <c r="H43" t="s">
-        <v>260</v>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43">
         <v>14</v>
@@ -2677,8 +2648,8 @@
       <c r="C44" t="s">
         <v>255</v>
       </c>
-      <c r="D44" t="s">
-        <v>258</v>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44">
         <v>-3.75</v>
@@ -2689,8 +2660,8 @@
       <c r="G44">
         <v>70</v>
       </c>
-      <c r="H44" t="s">
-        <v>260</v>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44">
         <v>16</v>
@@ -2712,8 +2683,8 @@
       <c r="C45" t="s">
         <v>254</v>
       </c>
-      <c r="D45" t="s">
-        <v>258</v>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -2724,8 +2695,8 @@
       <c r="G45">
         <v>95</v>
       </c>
-      <c r="H45" t="s">
-        <v>260</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
         <v>16</v>
@@ -2747,8 +2718,8 @@
       <c r="C46" t="s">
         <v>255</v>
       </c>
-      <c r="D46" t="s">
-        <v>257</v>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0.25</v>
@@ -2759,8 +2730,8 @@
       <c r="G46">
         <v>176</v>
       </c>
-      <c r="H46" t="s">
-        <v>260</v>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46">
         <v>19</v>
@@ -2782,8 +2753,8 @@
       <c r="C47" t="s">
         <v>254</v>
       </c>
-      <c r="D47" t="s">
-        <v>256</v>
+      <c r="D47">
+        <v>2</v>
       </c>
       <c r="E47">
         <v>1.75</v>
@@ -2794,8 +2765,8 @@
       <c r="G47">
         <v>95</v>
       </c>
-      <c r="H47" t="s">
-        <v>259</v>
+      <c r="H47">
+        <v>1</v>
       </c>
       <c r="I47">
         <v>16</v>
@@ -2817,8 +2788,8 @@
       <c r="C48" t="s">
         <v>254</v>
       </c>
-      <c r="D48" t="s">
-        <v>258</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48">
         <v>-2</v>
@@ -2829,8 +2800,8 @@
       <c r="G48">
         <v>100</v>
       </c>
-      <c r="H48" t="s">
-        <v>261</v>
+      <c r="H48">
+        <v>1</v>
       </c>
       <c r="I48">
         <v>19</v>
@@ -2852,8 +2823,8 @@
       <c r="C49" t="s">
         <v>254</v>
       </c>
-      <c r="D49" t="s">
-        <v>256</v>
+      <c r="D49">
+        <v>2</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2864,8 +2835,8 @@
       <c r="G49">
         <v>86</v>
       </c>
-      <c r="H49" t="s">
-        <v>260</v>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49">
         <v>26</v>
@@ -2887,8 +2858,8 @@
       <c r="C50" t="s">
         <v>255</v>
       </c>
-      <c r="D50" t="s">
-        <v>256</v>
+      <c r="D50">
+        <v>2</v>
       </c>
       <c r="E50">
         <v>2.5</v>
@@ -2899,8 +2870,8 @@
       <c r="G50">
         <v>67</v>
       </c>
-      <c r="H50" t="s">
-        <v>259</v>
+      <c r="H50">
+        <v>1</v>
       </c>
       <c r="I50">
         <v>23.3</v>
@@ -2922,8 +2893,8 @@
       <c r="C51" t="s">
         <v>255</v>
       </c>
-      <c r="D51" t="s">
-        <v>256</v>
+      <c r="D51">
+        <v>2</v>
       </c>
       <c r="E51">
         <v>2.25</v>
@@ -2934,8 +2905,8 @@
       <c r="G51">
         <v>93</v>
       </c>
-      <c r="H51" t="s">
-        <v>259</v>
+      <c r="H51">
+        <v>1</v>
       </c>
       <c r="I51">
         <v>19</v>
@@ -2957,8 +2928,8 @@
       <c r="C52" t="s">
         <v>255</v>
       </c>
-      <c r="D52" t="s">
-        <v>256</v>
+      <c r="D52">
+        <v>2</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -2969,8 +2940,8 @@
       <c r="G52">
         <v>82</v>
       </c>
-      <c r="H52" t="s">
-        <v>259</v>
+      <c r="H52">
+        <v>1</v>
       </c>
       <c r="I52">
         <v>14</v>
@@ -2992,8 +2963,8 @@
       <c r="C53" t="s">
         <v>255</v>
       </c>
-      <c r="D53" t="s">
-        <v>256</v>
+      <c r="D53">
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1.5</v>
@@ -3004,8 +2975,8 @@
       <c r="G53">
         <v>100</v>
       </c>
-      <c r="H53" t="s">
-        <v>260</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53">
         <v>14</v>
@@ -3027,8 +2998,8 @@
       <c r="C54" t="s">
         <v>254</v>
       </c>
-      <c r="D54" t="s">
-        <v>257</v>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3039,8 +3010,8 @@
       <c r="G54">
         <v>95</v>
       </c>
-      <c r="H54" t="s">
-        <v>259</v>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="I54">
         <v>22</v>
@@ -3062,8 +3033,8 @@
       <c r="C55" t="s">
         <v>254</v>
       </c>
-      <c r="D55" t="s">
-        <v>256</v>
+      <c r="D55">
+        <v>2</v>
       </c>
       <c r="E55">
         <v>1.25</v>
@@ -3074,8 +3045,8 @@
       <c r="G55">
         <v>105</v>
       </c>
-      <c r="H55" t="s">
-        <v>260</v>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55">
         <v>11</v>
@@ -3097,8 +3068,8 @@
       <c r="C56" t="s">
         <v>254</v>
       </c>
-      <c r="D56" t="s">
-        <v>256</v>
+      <c r="D56">
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1.25</v>
@@ -3109,8 +3080,8 @@
       <c r="G56">
         <v>60</v>
       </c>
-      <c r="H56" t="s">
-        <v>260</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56">
         <v>12</v>
@@ -3132,8 +3103,8 @@
       <c r="C57" t="s">
         <v>255</v>
       </c>
-      <c r="D57" t="s">
-        <v>258</v>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3144,8 +3115,8 @@
       <c r="G57">
         <v>88</v>
       </c>
-      <c r="H57" t="s">
-        <v>259</v>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="I57">
         <v>16</v>
@@ -3167,8 +3138,8 @@
       <c r="C58" t="s">
         <v>255</v>
       </c>
-      <c r="D58" t="s">
-        <v>256</v>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1.75</v>
@@ -3179,8 +3150,8 @@
       <c r="G58">
         <v>73</v>
       </c>
-      <c r="H58" t="s">
-        <v>259</v>
+      <c r="H58">
+        <v>1</v>
       </c>
       <c r="I58">
         <v>10</v>
@@ -3202,8 +3173,8 @@
       <c r="C59" t="s">
         <v>255</v>
       </c>
-      <c r="D59" t="s">
-        <v>256</v>
+      <c r="D59">
+        <v>2</v>
       </c>
       <c r="E59">
         <v>-0.75</v>
@@ -3214,8 +3185,8 @@
       <c r="G59">
         <v>97</v>
       </c>
-      <c r="H59" t="s">
-        <v>260</v>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="I59">
         <v>12</v>
@@ -3237,8 +3208,8 @@
       <c r="C60" t="s">
         <v>255</v>
       </c>
-      <c r="D60" t="s">
-        <v>256</v>
+      <c r="D60">
+        <v>2</v>
       </c>
       <c r="E60">
         <v>-0.5</v>
@@ -3249,8 +3220,8 @@
       <c r="G60">
         <v>73</v>
       </c>
-      <c r="H60" t="s">
-        <v>260</v>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60">
         <v>16</v>
@@ -3272,8 +3243,8 @@
       <c r="C61" t="s">
         <v>254</v>
       </c>
-      <c r="D61" t="s">
-        <v>257</v>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="E61">
         <v>-2.25</v>
@@ -3284,8 +3255,8 @@
       <c r="G61">
         <v>75</v>
       </c>
-      <c r="H61" t="s">
-        <v>260</v>
+      <c r="H61">
+        <v>0</v>
       </c>
       <c r="I61">
         <v>16</v>
@@ -3307,8 +3278,8 @@
       <c r="C62" t="s">
         <v>255</v>
       </c>
-      <c r="D62" t="s">
-        <v>256</v>
+      <c r="D62">
+        <v>2</v>
       </c>
       <c r="E62">
         <v>0.75</v>
@@ -3319,8 +3290,8 @@
       <c r="G62">
         <v>92.37656903765691</v>
       </c>
-      <c r="H62" t="s">
-        <v>260</v>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62">
         <v>16</v>
@@ -3342,8 +3313,8 @@
       <c r="C63" t="s">
         <v>255</v>
       </c>
-      <c r="D63" t="s">
-        <v>256</v>
+      <c r="D63">
+        <v>2</v>
       </c>
       <c r="E63">
         <v>3.25</v>
@@ -3354,8 +3325,8 @@
       <c r="G63">
         <v>90</v>
       </c>
-      <c r="H63" t="s">
-        <v>259</v>
+      <c r="H63">
+        <v>1</v>
       </c>
       <c r="I63">
         <v>18</v>
@@ -3377,8 +3348,8 @@
       <c r="C64" t="s">
         <v>255</v>
       </c>
-      <c r="D64" t="s">
-        <v>257</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1.5</v>
@@ -3389,8 +3360,8 @@
       <c r="G64">
         <v>80</v>
       </c>
-      <c r="H64" t="s">
-        <v>260</v>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
         <v>16</v>
@@ -3412,8 +3383,8 @@
       <c r="C65" t="s">
         <v>254</v>
       </c>
-      <c r="D65" t="s">
-        <v>256</v>
+      <c r="D65">
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0.25</v>
@@ -3424,8 +3395,8 @@
       <c r="G65">
         <v>180</v>
       </c>
-      <c r="H65" t="s">
-        <v>260</v>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
         <v>12</v>
@@ -3447,8 +3418,8 @@
       <c r="C66" t="s">
         <v>254</v>
       </c>
-      <c r="D66" t="s">
-        <v>256</v>
+      <c r="D66">
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0.75</v>
@@ -3459,8 +3430,8 @@
       <c r="G66">
         <v>109</v>
       </c>
-      <c r="H66" t="s">
-        <v>259</v>
+      <c r="H66">
+        <v>1</v>
       </c>
       <c r="I66">
         <v>14</v>
@@ -3482,8 +3453,8 @@
       <c r="C67" t="s">
         <v>255</v>
       </c>
-      <c r="D67" t="s">
-        <v>256</v>
+      <c r="D67">
+        <v>2</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -3494,8 +3465,8 @@
       <c r="G67">
         <v>90</v>
       </c>
-      <c r="H67" t="s">
-        <v>260</v>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67">
         <v>13</v>
@@ -3517,8 +3488,8 @@
       <c r="C68" t="s">
         <v>254</v>
       </c>
-      <c r="D68" t="s">
-        <v>256</v>
+      <c r="D68">
+        <v>2</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -3529,8 +3500,8 @@
       <c r="G68">
         <v>85</v>
       </c>
-      <c r="H68" t="s">
-        <v>259</v>
+      <c r="H68">
+        <v>1</v>
       </c>
       <c r="I68">
         <v>16</v>
@@ -3552,8 +3523,8 @@
       <c r="C69" t="s">
         <v>254</v>
       </c>
-      <c r="D69" t="s">
-        <v>256</v>
+      <c r="D69">
+        <v>2</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3564,8 +3535,8 @@
       <c r="G69">
         <v>80</v>
       </c>
-      <c r="H69" t="s">
-        <v>259</v>
+      <c r="H69">
+        <v>1</v>
       </c>
       <c r="I69">
         <v>16</v>
@@ -3587,8 +3558,8 @@
       <c r="C70" t="s">
         <v>255</v>
       </c>
-      <c r="D70" t="s">
-        <v>258</v>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3599,8 +3570,8 @@
       <c r="G70">
         <v>65</v>
       </c>
-      <c r="H70" t="s">
-        <v>260</v>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70">
         <v>18</v>
@@ -3622,8 +3593,8 @@
       <c r="C71" t="s">
         <v>255</v>
       </c>
-      <c r="D71" t="s">
-        <v>256</v>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="E71">
         <v>1.75</v>
@@ -3634,8 +3605,8 @@
       <c r="G71">
         <v>13</v>
       </c>
-      <c r="H71" t="s">
-        <v>260</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71">
         <v>18</v>
@@ -3657,8 +3628,8 @@
       <c r="C72" t="s">
         <v>255</v>
       </c>
-      <c r="D72" t="s">
-        <v>256</v>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72">
         <v>2.25</v>
@@ -3669,8 +3640,8 @@
       <c r="G72">
         <v>70</v>
       </c>
-      <c r="H72" t="s">
-        <v>259</v>
+      <c r="H72">
+        <v>1</v>
       </c>
       <c r="I72">
         <v>17</v>
@@ -3692,8 +3663,8 @@
       <c r="C73" t="s">
         <v>254</v>
       </c>
-      <c r="D73" t="s">
-        <v>256</v>
+      <c r="D73">
+        <v>2</v>
       </c>
       <c r="E73">
         <v>-0.25</v>
@@ -3704,8 +3675,8 @@
       <c r="G73">
         <v>70</v>
       </c>
-      <c r="H73" t="s">
-        <v>260</v>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73">
         <v>12</v>
@@ -3727,8 +3698,8 @@
       <c r="C74" t="s">
         <v>255</v>
       </c>
-      <c r="D74" t="s">
-        <v>256</v>
+      <c r="D74">
+        <v>2</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -3739,8 +3710,8 @@
       <c r="G74">
         <v>70</v>
       </c>
-      <c r="H74" t="s">
-        <v>260</v>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74">
         <v>9</v>
@@ -3762,8 +3733,8 @@
       <c r="C75" t="s">
         <v>255</v>
       </c>
-      <c r="D75" t="s">
-        <v>256</v>
+      <c r="D75">
+        <v>2</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -3774,8 +3745,8 @@
       <c r="G75">
         <v>113</v>
       </c>
-      <c r="H75" t="s">
-        <v>260</v>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75">
         <v>15</v>
@@ -3797,8 +3768,8 @@
       <c r="C76" t="s">
         <v>255</v>
       </c>
-      <c r="D76" t="s">
-        <v>258</v>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76">
         <v>2.5</v>
@@ -3809,8 +3780,8 @@
       <c r="G76">
         <v>70</v>
       </c>
-      <c r="H76" t="s">
-        <v>260</v>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -3832,8 +3803,8 @@
       <c r="C77" t="s">
         <v>255</v>
       </c>
-      <c r="D77" t="s">
-        <v>256</v>
+      <c r="D77">
+        <v>2</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3844,8 +3815,8 @@
       <c r="G77">
         <v>81</v>
       </c>
-      <c r="H77" t="s">
-        <v>260</v>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77">
         <v>13</v>
@@ -3867,8 +3838,8 @@
       <c r="C78" t="s">
         <v>254</v>
       </c>
-      <c r="D78" t="s">
-        <v>258</v>
+      <c r="D78">
+        <v>0</v>
       </c>
       <c r="E78">
         <v>3.25</v>
@@ -3879,8 +3850,8 @@
       <c r="G78">
         <v>88</v>
       </c>
-      <c r="H78" t="s">
-        <v>259</v>
+      <c r="H78">
+        <v>1</v>
       </c>
       <c r="I78">
         <v>16</v>
@@ -3902,8 +3873,8 @@
       <c r="C79" t="s">
         <v>254</v>
       </c>
-      <c r="D79" t="s">
-        <v>258</v>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3914,8 +3885,8 @@
       <c r="G79">
         <v>80</v>
       </c>
-      <c r="H79" t="s">
-        <v>260</v>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79">
         <v>13</v>
@@ -3937,8 +3908,8 @@
       <c r="C80" t="s">
         <v>255</v>
       </c>
-      <c r="D80" t="s">
-        <v>256</v>
+      <c r="D80">
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0.25</v>
@@ -3949,8 +3920,8 @@
       <c r="G80">
         <v>160</v>
       </c>
-      <c r="H80" t="s">
-        <v>260</v>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80">
         <v>10</v>
@@ -3972,8 +3943,8 @@
       <c r="C81" t="s">
         <v>254</v>
       </c>
-      <c r="D81" t="s">
-        <v>256</v>
+      <c r="D81">
+        <v>2</v>
       </c>
       <c r="E81">
         <v>0.25</v>
@@ -3984,8 +3955,8 @@
       <c r="G81">
         <v>87</v>
       </c>
-      <c r="H81" t="s">
-        <v>260</v>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -4007,8 +3978,8 @@
       <c r="C82" t="s">
         <v>255</v>
       </c>
-      <c r="D82" t="s">
-        <v>257</v>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0.75</v>
@@ -4019,8 +3990,8 @@
       <c r="G82">
         <v>80</v>
       </c>
-      <c r="H82" t="s">
-        <v>260</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82">
         <v>16</v>
@@ -4042,8 +4013,8 @@
       <c r="C83" t="s">
         <v>255</v>
       </c>
-      <c r="D83" t="s">
-        <v>256</v>
+      <c r="D83">
+        <v>2</v>
       </c>
       <c r="E83">
         <v>1.75</v>
@@ -4054,8 +4025,8 @@
       <c r="G83">
         <v>90</v>
       </c>
-      <c r="H83" t="s">
-        <v>260</v>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83">
         <v>16</v>
@@ -4077,8 +4048,8 @@
       <c r="C84" t="s">
         <v>255</v>
       </c>
-      <c r="D84" t="s">
-        <v>256</v>
+      <c r="D84">
+        <v>2</v>
       </c>
       <c r="E84">
         <v>2.25</v>
@@ -4089,8 +4060,8 @@
       <c r="G84">
         <v>73</v>
       </c>
-      <c r="H84" t="s">
-        <v>259</v>
+      <c r="H84">
+        <v>1</v>
       </c>
       <c r="I84">
         <v>15</v>
@@ -4112,8 +4083,8 @@
       <c r="C85" t="s">
         <v>254</v>
       </c>
-      <c r="D85" t="s">
-        <v>257</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0.75</v>
@@ -4124,8 +4095,8 @@
       <c r="G85">
         <v>165</v>
       </c>
-      <c r="H85" t="s">
-        <v>260</v>
+      <c r="H85">
+        <v>0</v>
       </c>
       <c r="I85">
         <v>13</v>
@@ -4147,8 +4118,8 @@
       <c r="C86" t="s">
         <v>254</v>
       </c>
-      <c r="D86" t="s">
-        <v>257</v>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="E86">
         <v>1.25</v>
@@ -4159,8 +4130,8 @@
       <c r="G86">
         <v>80</v>
       </c>
-      <c r="H86" t="s">
-        <v>260</v>
+      <c r="H86">
+        <v>0</v>
       </c>
       <c r="I86">
         <v>23</v>
@@ -4182,8 +4153,8 @@
       <c r="C87" t="s">
         <v>255</v>
       </c>
-      <c r="D87" t="s">
-        <v>256</v>
+      <c r="D87">
+        <v>2</v>
       </c>
       <c r="E87">
         <v>-4.25</v>
@@ -4194,8 +4165,8 @@
       <c r="G87">
         <v>100</v>
       </c>
-      <c r="H87" t="s">
-        <v>259</v>
+      <c r="H87">
+        <v>1</v>
       </c>
       <c r="I87">
         <v>16</v>
@@ -4217,8 +4188,8 @@
       <c r="C88" t="s">
         <v>255</v>
       </c>
-      <c r="D88" t="s">
-        <v>256</v>
+      <c r="D88">
+        <v>2</v>
       </c>
       <c r="E88">
         <v>1.5</v>
@@ -4229,8 +4200,8 @@
       <c r="G88">
         <v>102</v>
       </c>
-      <c r="H88" t="s">
-        <v>260</v>
+      <c r="H88">
+        <v>0</v>
       </c>
       <c r="I88">
         <v>15</v>
@@ -4252,8 +4223,8 @@
       <c r="C89" t="s">
         <v>255</v>
       </c>
-      <c r="D89" t="s">
-        <v>258</v>
+      <c r="D89">
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0.25</v>
@@ -4264,8 +4235,8 @@
       <c r="G89">
         <v>130</v>
       </c>
-      <c r="H89" t="s">
-        <v>260</v>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89">
         <v>16</v>
@@ -4287,8 +4258,8 @@
       <c r="C90" t="s">
         <v>255</v>
       </c>
-      <c r="D90" t="s">
-        <v>256</v>
+      <c r="D90">
+        <v>2</v>
       </c>
       <c r="E90">
         <v>0.25</v>
@@ -4299,8 +4270,8 @@
       <c r="G90">
         <v>142</v>
       </c>
-      <c r="H90" t="s">
-        <v>260</v>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90">
         <v>21</v>
@@ -4322,8 +4293,8 @@
       <c r="C91" t="s">
         <v>255</v>
       </c>
-      <c r="D91" t="s">
-        <v>257</v>
+      <c r="D91">
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0.75</v>
@@ -4334,8 +4305,8 @@
       <c r="G91">
         <v>20</v>
       </c>
-      <c r="H91" t="s">
-        <v>259</v>
+      <c r="H91">
+        <v>1</v>
       </c>
       <c r="I91">
         <v>15</v>
@@ -4357,8 +4328,8 @@
       <c r="C92" t="s">
         <v>254</v>
       </c>
-      <c r="D92" t="s">
-        <v>258</v>
+      <c r="D92">
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0.5</v>
@@ -4369,8 +4340,8 @@
       <c r="G92">
         <v>75</v>
       </c>
-      <c r="H92" t="s">
-        <v>260</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92">
         <v>16</v>
@@ -4392,8 +4363,8 @@
       <c r="C93" t="s">
         <v>255</v>
       </c>
-      <c r="D93" t="s">
-        <v>256</v>
+      <c r="D93">
+        <v>2</v>
       </c>
       <c r="E93">
         <v>2.25</v>
@@ -4404,8 +4375,8 @@
       <c r="G93">
         <v>174</v>
       </c>
-      <c r="H93" t="s">
-        <v>259</v>
+      <c r="H93">
+        <v>1</v>
       </c>
       <c r="I93">
         <v>14</v>
@@ -4427,8 +4398,8 @@
       <c r="C94" t="s">
         <v>255</v>
       </c>
-      <c r="D94" t="s">
-        <v>256</v>
+      <c r="D94">
+        <v>2</v>
       </c>
       <c r="E94">
         <v>6</v>
@@ -4439,8 +4410,8 @@
       <c r="G94">
         <v>85</v>
       </c>
-      <c r="H94" t="s">
-        <v>260</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94">
         <v>16</v>
@@ -4462,8 +4433,8 @@
       <c r="C95" t="s">
         <v>254</v>
       </c>
-      <c r="D95" t="s">
-        <v>256</v>
+      <c r="D95">
+        <v>2</v>
       </c>
       <c r="E95">
         <v>0.5</v>
@@ -4474,8 +4445,8 @@
       <c r="G95">
         <v>68</v>
       </c>
-      <c r="H95" t="s">
-        <v>260</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95">
         <v>16</v>
@@ -4497,8 +4468,8 @@
       <c r="C96" t="s">
         <v>255</v>
       </c>
-      <c r="D96" t="s">
-        <v>256</v>
+      <c r="D96">
+        <v>2</v>
       </c>
       <c r="E96">
         <v>-0.75</v>
@@ -4509,8 +4480,8 @@
       <c r="G96">
         <v>85</v>
       </c>
-      <c r="H96" t="s">
-        <v>260</v>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96">
         <v>12</v>
@@ -4532,8 +4503,8 @@
       <c r="C97" t="s">
         <v>254</v>
       </c>
-      <c r="D97" t="s">
-        <v>257</v>
+      <c r="D97">
+        <v>1</v>
       </c>
       <c r="E97">
         <v>-4</v>
@@ -4544,8 +4515,8 @@
       <c r="G97">
         <v>56</v>
       </c>
-      <c r="H97" t="s">
-        <v>260</v>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="I97">
         <v>20</v>
@@ -4567,8 +4538,8 @@
       <c r="C98" t="s">
         <v>254</v>
       </c>
-      <c r="D98" t="s">
-        <v>256</v>
+      <c r="D98">
+        <v>2</v>
       </c>
       <c r="E98">
         <v>-3</v>
@@ -4579,8 +4550,8 @@
       <c r="G98">
         <v>110</v>
       </c>
-      <c r="H98" t="s">
-        <v>259</v>
+      <c r="H98">
+        <v>1</v>
       </c>
       <c r="I98">
         <v>11</v>
@@ -4602,8 +4573,8 @@
       <c r="C99" t="s">
         <v>254</v>
       </c>
-      <c r="D99" t="s">
-        <v>256</v>
+      <c r="D99">
+        <v>2</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -4614,8 +4585,8 @@
       <c r="G99">
         <v>92</v>
       </c>
-      <c r="H99" t="s">
-        <v>260</v>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99">
         <v>21</v>
@@ -4637,8 +4608,8 @@
       <c r="C100" t="s">
         <v>255</v>
       </c>
-      <c r="D100" t="s">
-        <v>256</v>
+      <c r="D100">
+        <v>2</v>
       </c>
       <c r="E100">
         <v>0.75</v>
@@ -4649,8 +4620,8 @@
       <c r="G100">
         <v>115</v>
       </c>
-      <c r="H100" t="s">
-        <v>260</v>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100">
         <v>16</v>
@@ -4672,8 +4643,8 @@
       <c r="C101" t="s">
         <v>255</v>
       </c>
-      <c r="D101" t="s">
-        <v>258</v>
+      <c r="D101">
+        <v>0</v>
       </c>
       <c r="E101">
         <v>1.25</v>
@@ -4684,8 +4655,8 @@
       <c r="G101">
         <v>86</v>
       </c>
-      <c r="H101" t="s">
-        <v>259</v>
+      <c r="H101">
+        <v>1</v>
       </c>
       <c r="I101">
         <v>16</v>
@@ -4707,8 +4678,8 @@
       <c r="C102" t="s">
         <v>254</v>
       </c>
-      <c r="D102" t="s">
-        <v>256</v>
+      <c r="D102">
+        <v>2</v>
       </c>
       <c r="E102">
         <v>1.75</v>
@@ -4719,8 +4690,8 @@
       <c r="G102">
         <v>85</v>
       </c>
-      <c r="H102" t="s">
-        <v>260</v>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102">
         <v>15</v>
@@ -4742,8 +4713,8 @@
       <c r="C103" t="s">
         <v>254</v>
       </c>
-      <c r="D103" t="s">
-        <v>256</v>
+      <c r="D103">
+        <v>2</v>
       </c>
       <c r="E103">
         <v>0.5</v>
@@ -4754,8 +4725,8 @@
       <c r="G103">
         <v>7</v>
       </c>
-      <c r="H103" t="s">
-        <v>260</v>
+      <c r="H103">
+        <v>0</v>
       </c>
       <c r="I103">
         <v>16</v>
@@ -4777,8 +4748,8 @@
       <c r="C104" t="s">
         <v>255</v>
       </c>
-      <c r="D104" t="s">
-        <v>256</v>
+      <c r="D104">
+        <v>2</v>
       </c>
       <c r="E104">
         <v>0.25</v>
@@ -4789,8 +4760,8 @@
       <c r="G104">
         <v>44</v>
       </c>
-      <c r="H104" t="s">
-        <v>260</v>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="I104">
         <v>16</v>
@@ -4812,8 +4783,8 @@
       <c r="C105" t="s">
         <v>255</v>
       </c>
-      <c r="D105" t="s">
-        <v>258</v>
+      <c r="D105">
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0.5</v>
@@ -4824,8 +4795,8 @@
       <c r="G105">
         <v>92.37656903765691</v>
       </c>
-      <c r="H105" t="s">
-        <v>259</v>
+      <c r="H105">
+        <v>1</v>
       </c>
       <c r="I105">
         <v>12</v>
@@ -4847,8 +4818,8 @@
       <c r="C106" t="s">
         <v>255</v>
       </c>
-      <c r="D106" t="s">
-        <v>256</v>
+      <c r="D106">
+        <v>2</v>
       </c>
       <c r="E106">
         <v>0.5</v>
@@ -4859,8 +4830,8 @@
       <c r="G106">
         <v>105</v>
       </c>
-      <c r="H106" t="s">
-        <v>259</v>
+      <c r="H106">
+        <v>1</v>
       </c>
       <c r="I106">
         <v>20</v>
@@ -4882,8 +4853,8 @@
       <c r="C107" t="s">
         <v>255</v>
       </c>
-      <c r="D107" t="s">
-        <v>256</v>
+      <c r="D107">
+        <v>2</v>
       </c>
       <c r="E107">
         <v>-4.75</v>
@@ -4894,8 +4865,8 @@
       <c r="G107">
         <v>90</v>
       </c>
-      <c r="H107" t="s">
-        <v>260</v>
+      <c r="H107">
+        <v>0</v>
       </c>
       <c r="I107">
         <v>18</v>
@@ -4917,8 +4888,8 @@
       <c r="C108" t="s">
         <v>255</v>
       </c>
-      <c r="D108" t="s">
-        <v>256</v>
+      <c r="D108">
+        <v>2</v>
       </c>
       <c r="E108">
         <v>-0.5</v>
@@ -4929,8 +4900,8 @@
       <c r="G108">
         <v>35</v>
       </c>
-      <c r="H108" t="s">
-        <v>259</v>
+      <c r="H108">
+        <v>1</v>
       </c>
       <c r="I108">
         <v>25</v>
@@ -4952,8 +4923,8 @@
       <c r="C109" t="s">
         <v>254</v>
       </c>
-      <c r="D109" t="s">
-        <v>256</v>
+      <c r="D109">
+        <v>2</v>
       </c>
       <c r="E109">
         <v>2.25</v>
@@ -4964,8 +4935,8 @@
       <c r="G109">
         <v>160</v>
       </c>
-      <c r="H109" t="s">
-        <v>259</v>
+      <c r="H109">
+        <v>1</v>
       </c>
       <c r="I109">
         <v>16</v>
@@ -4987,8 +4958,8 @@
       <c r="C110" t="s">
         <v>255</v>
       </c>
-      <c r="D110" t="s">
-        <v>258</v>
+      <c r="D110">
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0.5</v>
@@ -4999,8 +4970,8 @@
       <c r="G110">
         <v>110</v>
       </c>
-      <c r="H110" t="s">
-        <v>260</v>
+      <c r="H110">
+        <v>0</v>
       </c>
       <c r="I110">
         <v>13</v>
@@ -5022,8 +4993,8 @@
       <c r="C111" t="s">
         <v>254</v>
       </c>
-      <c r="D111" t="s">
-        <v>256</v>
+      <c r="D111">
+        <v>2</v>
       </c>
       <c r="E111">
         <v>0.75</v>
@@ -5034,8 +5005,8 @@
       <c r="G111">
         <v>158</v>
       </c>
-      <c r="H111" t="s">
-        <v>259</v>
+      <c r="H111">
+        <v>1</v>
       </c>
       <c r="I111">
         <v>15</v>
@@ -5057,8 +5028,8 @@
       <c r="C112" t="s">
         <v>255</v>
       </c>
-      <c r="D112" t="s">
-        <v>258</v>
+      <c r="D112">
+        <v>0</v>
       </c>
       <c r="E112">
         <v>-0.25</v>
@@ -5069,8 +5040,8 @@
       <c r="G112">
         <v>80</v>
       </c>
-      <c r="H112" t="s">
-        <v>260</v>
+      <c r="H112">
+        <v>0</v>
       </c>
       <c r="I112">
         <v>16</v>
@@ -5092,8 +5063,8 @@
       <c r="C113" t="s">
         <v>255</v>
       </c>
-      <c r="D113" t="s">
-        <v>258</v>
+      <c r="D113">
+        <v>0</v>
       </c>
       <c r="E113">
         <v>1.5</v>
@@ -5104,8 +5075,8 @@
       <c r="G113">
         <v>90</v>
       </c>
-      <c r="H113" t="s">
-        <v>260</v>
+      <c r="H113">
+        <v>0</v>
       </c>
       <c r="I113">
         <v>16</v>
@@ -5127,8 +5098,8 @@
       <c r="C114" t="s">
         <v>254</v>
       </c>
-      <c r="D114" t="s">
-        <v>256</v>
+      <c r="D114">
+        <v>2</v>
       </c>
       <c r="E114">
         <v>1.25</v>
@@ -5139,8 +5110,8 @@
       <c r="G114">
         <v>81</v>
       </c>
-      <c r="H114" t="s">
-        <v>259</v>
+      <c r="H114">
+        <v>1</v>
       </c>
       <c r="I114">
         <v>12</v>
@@ -5162,8 +5133,8 @@
       <c r="C115" t="s">
         <v>255</v>
       </c>
-      <c r="D115" t="s">
-        <v>256</v>
+      <c r="D115">
+        <v>2</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5174,8 +5145,8 @@
       <c r="G115">
         <v>45</v>
       </c>
-      <c r="H115" t="s">
-        <v>259</v>
+      <c r="H115">
+        <v>1</v>
       </c>
       <c r="I115">
         <v>17</v>
@@ -5197,8 +5168,8 @@
       <c r="C116" t="s">
         <v>255</v>
       </c>
-      <c r="D116" t="s">
-        <v>256</v>
+      <c r="D116">
+        <v>2</v>
       </c>
       <c r="E116">
         <v>-1.75</v>
@@ -5209,8 +5180,8 @@
       <c r="G116">
         <v>175</v>
       </c>
-      <c r="H116" t="s">
-        <v>259</v>
+      <c r="H116">
+        <v>1</v>
       </c>
       <c r="I116">
         <v>20</v>
@@ -5232,8 +5203,8 @@
       <c r="C117" t="s">
         <v>254</v>
       </c>
-      <c r="D117" t="s">
-        <v>256</v>
+      <c r="D117">
+        <v>2</v>
       </c>
       <c r="E117">
         <v>-1.25</v>
@@ -5244,8 +5215,8 @@
       <c r="G117">
         <v>167</v>
       </c>
-      <c r="H117" t="s">
-        <v>260</v>
+      <c r="H117">
+        <v>0</v>
       </c>
       <c r="I117">
         <v>21</v>
@@ -5267,8 +5238,8 @@
       <c r="C118" t="s">
         <v>254</v>
       </c>
-      <c r="D118" t="s">
-        <v>258</v>
+      <c r="D118">
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0.5</v>
@@ -5279,8 +5250,8 @@
       <c r="G118">
         <v>110</v>
       </c>
-      <c r="H118" t="s">
-        <v>260</v>
+      <c r="H118">
+        <v>0</v>
       </c>
       <c r="I118">
         <v>16</v>
@@ -5302,8 +5273,8 @@
       <c r="C119" t="s">
         <v>254</v>
       </c>
-      <c r="D119" t="s">
-        <v>258</v>
+      <c r="D119">
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0.75</v>
@@ -5314,8 +5285,8 @@
       <c r="G119">
         <v>100</v>
       </c>
-      <c r="H119" t="s">
-        <v>260</v>
+      <c r="H119">
+        <v>0</v>
       </c>
       <c r="I119">
         <v>12</v>
@@ -5337,8 +5308,8 @@
       <c r="C120" t="s">
         <v>255</v>
       </c>
-      <c r="D120" t="s">
-        <v>256</v>
+      <c r="D120">
+        <v>2</v>
       </c>
       <c r="E120">
         <v>1.25</v>
@@ -5349,8 +5320,8 @@
       <c r="G120">
         <v>99</v>
       </c>
-      <c r="H120" t="s">
-        <v>260</v>
+      <c r="H120">
+        <v>0</v>
       </c>
       <c r="I120">
         <v>10</v>
@@ -5372,8 +5343,8 @@
       <c r="C121" t="s">
         <v>255</v>
       </c>
-      <c r="D121" t="s">
-        <v>256</v>
+      <c r="D121">
+        <v>2</v>
       </c>
       <c r="E121">
         <v>0.25</v>
@@ -5384,8 +5355,8 @@
       <c r="G121">
         <v>85</v>
       </c>
-      <c r="H121" t="s">
-        <v>259</v>
+      <c r="H121">
+        <v>1</v>
       </c>
       <c r="I121">
         <v>17</v>
@@ -5407,8 +5378,8 @@
       <c r="C122" t="s">
         <v>254</v>
       </c>
-      <c r="D122" t="s">
-        <v>256</v>
+      <c r="D122">
+        <v>2</v>
       </c>
       <c r="E122">
         <v>0.75</v>
@@ -5419,8 +5390,8 @@
       <c r="G122">
         <v>100</v>
       </c>
-      <c r="H122" t="s">
-        <v>259</v>
+      <c r="H122">
+        <v>1</v>
       </c>
       <c r="I122">
         <v>17</v>
@@ -5442,8 +5413,8 @@
       <c r="C123" t="s">
         <v>254</v>
       </c>
-      <c r="D123" t="s">
-        <v>258</v>
+      <c r="D123">
+        <v>0</v>
       </c>
       <c r="E123">
         <v>-2.25</v>
@@ -5454,8 +5425,8 @@
       <c r="G123">
         <v>78</v>
       </c>
-      <c r="H123" t="s">
-        <v>260</v>
+      <c r="H123">
+        <v>0</v>
       </c>
       <c r="I123">
         <v>16</v>
@@ -5477,8 +5448,8 @@
       <c r="C124" t="s">
         <v>255</v>
       </c>
-      <c r="D124" t="s">
-        <v>256</v>
+      <c r="D124">
+        <v>2</v>
       </c>
       <c r="E124">
         <v>0.75</v>
@@ -5489,8 +5460,8 @@
       <c r="G124">
         <v>80</v>
       </c>
-      <c r="H124" t="s">
-        <v>260</v>
+      <c r="H124">
+        <v>0</v>
       </c>
       <c r="I124">
         <v>18</v>
@@ -5512,8 +5483,8 @@
       <c r="C125" t="s">
         <v>255</v>
       </c>
-      <c r="D125" t="s">
-        <v>256</v>
+      <c r="D125">
+        <v>2</v>
       </c>
       <c r="E125">
         <v>2.5</v>
@@ -5524,8 +5495,8 @@
       <c r="G125">
         <v>120</v>
       </c>
-      <c r="H125" t="s">
-        <v>260</v>
+      <c r="H125">
+        <v>0</v>
       </c>
       <c r="I125">
         <v>16</v>
@@ -5547,8 +5518,8 @@
       <c r="C126" t="s">
         <v>255</v>
       </c>
-      <c r="D126" t="s">
-        <v>256</v>
+      <c r="D126">
+        <v>2</v>
       </c>
       <c r="E126">
         <v>-0.25</v>
@@ -5559,8 +5530,8 @@
       <c r="G126">
         <v>155</v>
       </c>
-      <c r="H126" t="s">
-        <v>259</v>
+      <c r="H126">
+        <v>1</v>
       </c>
       <c r="I126">
         <v>12</v>
@@ -5582,8 +5553,8 @@
       <c r="C127" t="s">
         <v>254</v>
       </c>
-      <c r="D127" t="s">
-        <v>257</v>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="E127">
         <v>-0.25</v>
@@ -5594,8 +5565,8 @@
       <c r="G127">
         <v>4</v>
       </c>
-      <c r="H127" t="s">
-        <v>260</v>
+      <c r="H127">
+        <v>0</v>
       </c>
       <c r="I127">
         <v>16</v>
@@ -5617,8 +5588,8 @@
       <c r="C128" t="s">
         <v>255</v>
       </c>
-      <c r="D128" t="s">
-        <v>258</v>
+      <c r="D128">
+        <v>0</v>
       </c>
       <c r="E128">
         <v>3</v>
@@ -5629,8 +5600,8 @@
       <c r="G128">
         <v>83</v>
       </c>
-      <c r="H128" t="s">
-        <v>260</v>
+      <c r="H128">
+        <v>0</v>
       </c>
       <c r="I128">
         <v>13</v>
@@ -5652,8 +5623,8 @@
       <c r="C129" t="s">
         <v>255</v>
       </c>
-      <c r="D129" t="s">
-        <v>256</v>
+      <c r="D129">
+        <v>2</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -5664,8 +5635,8 @@
       <c r="G129">
         <v>70</v>
       </c>
-      <c r="H129" t="s">
-        <v>260</v>
+      <c r="H129">
+        <v>0</v>
       </c>
       <c r="I129">
         <v>19</v>
@@ -5687,8 +5658,8 @@
       <c r="C130" t="s">
         <v>255</v>
       </c>
-      <c r="D130" t="s">
-        <v>256</v>
+      <c r="D130">
+        <v>2</v>
       </c>
       <c r="E130">
         <v>0.75</v>
@@ -5699,8 +5670,8 @@
       <c r="G130">
         <v>25</v>
       </c>
-      <c r="H130" t="s">
-        <v>259</v>
+      <c r="H130">
+        <v>1</v>
       </c>
       <c r="I130">
         <v>15</v>
@@ -5722,8 +5693,8 @@
       <c r="C131" t="s">
         <v>255</v>
       </c>
-      <c r="D131" t="s">
-        <v>258</v>
+      <c r="D131">
+        <v>0</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5734,8 +5705,8 @@
       <c r="G131">
         <v>87</v>
       </c>
-      <c r="H131" t="s">
-        <v>260</v>
+      <c r="H131">
+        <v>0</v>
       </c>
       <c r="I131">
         <v>16</v>
@@ -5757,8 +5728,8 @@
       <c r="C132" t="s">
         <v>254</v>
       </c>
-      <c r="D132" t="s">
-        <v>257</v>
+      <c r="D132">
+        <v>1</v>
       </c>
       <c r="E132">
         <v>0.75</v>
@@ -5769,8 +5740,8 @@
       <c r="G132">
         <v>95</v>
       </c>
-      <c r="H132" t="s">
-        <v>259</v>
+      <c r="H132">
+        <v>1</v>
       </c>
       <c r="I132">
         <v>23</v>
@@ -5792,8 +5763,8 @@
       <c r="C133" t="s">
         <v>254</v>
       </c>
-      <c r="D133" t="s">
-        <v>256</v>
+      <c r="D133">
+        <v>2</v>
       </c>
       <c r="E133">
         <v>4.25</v>
@@ -5804,8 +5775,8 @@
       <c r="G133">
         <v>103</v>
       </c>
-      <c r="H133" t="s">
-        <v>259</v>
+      <c r="H133">
+        <v>1</v>
       </c>
       <c r="I133">
         <v>19</v>
@@ -5827,8 +5798,8 @@
       <c r="C134" t="s">
         <v>254</v>
       </c>
-      <c r="D134" t="s">
-        <v>258</v>
+      <c r="D134">
+        <v>0</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -5839,8 +5810,8 @@
       <c r="G134">
         <v>90</v>
       </c>
-      <c r="H134" t="s">
-        <v>260</v>
+      <c r="H134">
+        <v>0</v>
       </c>
       <c r="I134">
         <v>16</v>
@@ -5862,8 +5833,8 @@
       <c r="C135" t="s">
         <v>255</v>
       </c>
-      <c r="D135" t="s">
-        <v>256</v>
+      <c r="D135">
+        <v>2</v>
       </c>
       <c r="E135">
         <v>3</v>
@@ -5874,8 +5845,8 @@
       <c r="G135">
         <v>75</v>
       </c>
-      <c r="H135" t="s">
-        <v>259</v>
+      <c r="H135">
+        <v>1</v>
       </c>
       <c r="I135">
         <v>15</v>
@@ -5897,8 +5868,8 @@
       <c r="C136" t="s">
         <v>255</v>
       </c>
-      <c r="D136" t="s">
-        <v>256</v>
+      <c r="D136">
+        <v>2</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -5909,8 +5880,8 @@
       <c r="G136">
         <v>95</v>
       </c>
-      <c r="H136" t="s">
-        <v>260</v>
+      <c r="H136">
+        <v>0</v>
       </c>
       <c r="I136">
         <v>19</v>
@@ -5932,8 +5903,8 @@
       <c r="C137" t="s">
         <v>255</v>
       </c>
-      <c r="D137" t="s">
-        <v>256</v>
+      <c r="D137">
+        <v>2</v>
       </c>
       <c r="E137">
         <v>0.75</v>
@@ -5944,8 +5915,8 @@
       <c r="G137">
         <v>150</v>
       </c>
-      <c r="H137" t="s">
-        <v>259</v>
+      <c r="H137">
+        <v>1</v>
       </c>
       <c r="I137">
         <v>12</v>
@@ -5967,8 +5938,8 @@
       <c r="C138" t="s">
         <v>255</v>
       </c>
-      <c r="D138" t="s">
-        <v>258</v>
+      <c r="D138">
+        <v>0</v>
       </c>
       <c r="E138">
         <v>3</v>
@@ -5979,8 +5950,8 @@
       <c r="G138">
         <v>65</v>
       </c>
-      <c r="H138" t="s">
-        <v>259</v>
+      <c r="H138">
+        <v>1</v>
       </c>
       <c r="I138">
         <v>13</v>
@@ -6002,8 +5973,8 @@
       <c r="C139" t="s">
         <v>254</v>
       </c>
-      <c r="D139" t="s">
-        <v>257</v>
+      <c r="D139">
+        <v>1</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6014,8 +5985,8 @@
       <c r="G139">
         <v>16</v>
       </c>
-      <c r="H139" t="s">
-        <v>260</v>
+      <c r="H139">
+        <v>0</v>
       </c>
       <c r="I139">
         <v>16</v>
@@ -6037,8 +6008,8 @@
       <c r="C140" t="s">
         <v>254</v>
       </c>
-      <c r="D140" t="s">
-        <v>256</v>
+      <c r="D140">
+        <v>2</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -6049,8 +6020,8 @@
       <c r="G140">
         <v>50</v>
       </c>
-      <c r="H140" t="s">
-        <v>260</v>
+      <c r="H140">
+        <v>0</v>
       </c>
       <c r="I140">
         <v>11</v>
@@ -6072,8 +6043,8 @@
       <c r="C141" t="s">
         <v>254</v>
       </c>
-      <c r="D141" t="s">
-        <v>258</v>
+      <c r="D141">
+        <v>0</v>
       </c>
       <c r="E141">
         <v>-1</v>
@@ -6084,8 +6055,8 @@
       <c r="G141">
         <v>170</v>
       </c>
-      <c r="H141" t="s">
-        <v>260</v>
+      <c r="H141">
+        <v>0</v>
       </c>
       <c r="I141">
         <v>16</v>
@@ -6107,8 +6078,8 @@
       <c r="C142" t="s">
         <v>255</v>
       </c>
-      <c r="D142" t="s">
-        <v>256</v>
+      <c r="D142">
+        <v>2</v>
       </c>
       <c r="E142">
         <v>0.75</v>
@@ -6119,8 +6090,8 @@
       <c r="G142">
         <v>100</v>
       </c>
-      <c r="H142" t="s">
-        <v>260</v>
+      <c r="H142">
+        <v>0</v>
       </c>
       <c r="I142">
         <v>16</v>
@@ -6142,8 +6113,8 @@
       <c r="C143" t="s">
         <v>255</v>
       </c>
-      <c r="D143" t="s">
-        <v>256</v>
+      <c r="D143">
+        <v>2</v>
       </c>
       <c r="E143">
         <v>-0.5</v>
@@ -6154,8 +6125,8 @@
       <c r="G143">
         <v>155</v>
       </c>
-      <c r="H143" t="s">
-        <v>260</v>
+      <c r="H143">
+        <v>0</v>
       </c>
       <c r="I143">
         <v>18</v>
@@ -6177,8 +6148,8 @@
       <c r="C144" t="s">
         <v>254</v>
       </c>
-      <c r="D144" t="s">
-        <v>258</v>
+      <c r="D144">
+        <v>0</v>
       </c>
       <c r="E144">
         <v>1.5</v>
@@ -6189,8 +6160,8 @@
       <c r="G144">
         <v>100</v>
       </c>
-      <c r="H144" t="s">
-        <v>259</v>
+      <c r="H144">
+        <v>1</v>
       </c>
       <c r="I144">
         <v>20</v>
@@ -6212,8 +6183,8 @@
       <c r="C145" t="s">
         <v>255</v>
       </c>
-      <c r="D145" t="s">
-        <v>256</v>
+      <c r="D145">
+        <v>2</v>
       </c>
       <c r="E145">
         <v>0.5</v>
@@ -6224,8 +6195,8 @@
       <c r="G145">
         <v>155</v>
       </c>
-      <c r="H145" t="s">
-        <v>259</v>
+      <c r="H145">
+        <v>1</v>
       </c>
       <c r="I145">
         <v>13</v>
@@ -6247,8 +6218,8 @@
       <c r="C146" t="s">
         <v>254</v>
       </c>
-      <c r="D146" t="s">
-        <v>256</v>
+      <c r="D146">
+        <v>2</v>
       </c>
       <c r="E146">
         <v>3.25</v>
@@ -6259,8 +6230,8 @@
       <c r="G146">
         <v>90</v>
       </c>
-      <c r="H146" t="s">
-        <v>260</v>
+      <c r="H146">
+        <v>0</v>
       </c>
       <c r="I146">
         <v>16</v>
@@ -6282,8 +6253,8 @@
       <c r="C147" t="s">
         <v>254</v>
       </c>
-      <c r="D147" t="s">
-        <v>258</v>
+      <c r="D147">
+        <v>0</v>
       </c>
       <c r="E147">
         <v>0.75</v>
@@ -6294,8 +6265,8 @@
       <c r="G147">
         <v>-1</v>
       </c>
-      <c r="H147" t="s">
-        <v>259</v>
+      <c r="H147">
+        <v>1</v>
       </c>
       <c r="I147">
         <v>21</v>
@@ -6317,8 +6288,8 @@
       <c r="C148" t="s">
         <v>254</v>
       </c>
-      <c r="D148" t="s">
-        <v>257</v>
+      <c r="D148">
+        <v>1</v>
       </c>
       <c r="E148">
         <v>-2.75</v>
@@ -6329,8 +6300,8 @@
       <c r="G148">
         <v>145</v>
       </c>
-      <c r="H148" t="s">
-        <v>260</v>
+      <c r="H148">
+        <v>0</v>
       </c>
       <c r="I148">
         <v>16</v>
@@ -6352,8 +6323,8 @@
       <c r="C149" t="s">
         <v>254</v>
       </c>
-      <c r="D149" t="s">
-        <v>256</v>
+      <c r="D149">
+        <v>2</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -6364,8 +6335,8 @@
       <c r="G149">
         <v>19</v>
       </c>
-      <c r="H149" t="s">
-        <v>259</v>
+      <c r="H149">
+        <v>1</v>
       </c>
       <c r="I149">
         <v>16</v>
@@ -6387,8 +6358,8 @@
       <c r="C150" t="s">
         <v>254</v>
       </c>
-      <c r="D150" t="s">
-        <v>257</v>
+      <c r="D150">
+        <v>1</v>
       </c>
       <c r="E150">
         <v>5.25</v>
@@ -6399,8 +6370,8 @@
       <c r="G150">
         <v>100</v>
       </c>
-      <c r="H150" t="s">
-        <v>260</v>
+      <c r="H150">
+        <v>0</v>
       </c>
       <c r="I150">
         <v>16</v>
@@ -6422,8 +6393,8 @@
       <c r="C151" t="s">
         <v>254</v>
       </c>
-      <c r="D151" t="s">
-        <v>258</v>
+      <c r="D151">
+        <v>0</v>
       </c>
       <c r="E151">
         <v>-0.25</v>
@@ -6434,8 +6405,8 @@
       <c r="G151">
         <v>70</v>
       </c>
-      <c r="H151" t="s">
-        <v>260</v>
+      <c r="H151">
+        <v>0</v>
       </c>
       <c r="I151">
         <v>16</v>
@@ -6457,8 +6428,8 @@
       <c r="C152" t="s">
         <v>255</v>
       </c>
-      <c r="D152" t="s">
-        <v>256</v>
+      <c r="D152">
+        <v>2</v>
       </c>
       <c r="E152">
         <v>0.25</v>
@@ -6469,8 +6440,8 @@
       <c r="G152">
         <v>5</v>
       </c>
-      <c r="H152" t="s">
-        <v>260</v>
+      <c r="H152">
+        <v>0</v>
       </c>
       <c r="I152">
         <v>14</v>
@@ -6492,8 +6463,8 @@
       <c r="C153" t="s">
         <v>254</v>
       </c>
-      <c r="D153" t="s">
-        <v>256</v>
+      <c r="D153">
+        <v>2</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6504,8 +6475,8 @@
       <c r="G153">
         <v>95</v>
       </c>
-      <c r="H153" t="s">
-        <v>259</v>
+      <c r="H153">
+        <v>1</v>
       </c>
       <c r="I153">
         <v>15</v>
@@ -6527,8 +6498,8 @@
       <c r="C154" t="s">
         <v>255</v>
       </c>
-      <c r="D154" t="s">
-        <v>256</v>
+      <c r="D154">
+        <v>2</v>
       </c>
       <c r="E154">
         <v>2.5</v>
@@ -6539,8 +6510,8 @@
       <c r="G154">
         <v>40</v>
       </c>
-      <c r="H154" t="s">
-        <v>259</v>
+      <c r="H154">
+        <v>1</v>
       </c>
       <c r="I154">
         <v>19</v>
@@ -6562,8 +6533,8 @@
       <c r="C155" t="s">
         <v>255</v>
       </c>
-      <c r="D155" t="s">
-        <v>256</v>
+      <c r="D155">
+        <v>2</v>
       </c>
       <c r="E155">
         <v>2.25</v>
@@ -6574,8 +6545,8 @@
       <c r="G155">
         <v>110</v>
       </c>
-      <c r="H155" t="s">
-        <v>260</v>
+      <c r="H155">
+        <v>0</v>
       </c>
       <c r="I155">
         <v>14</v>
@@ -6597,8 +6568,8 @@
       <c r="C156" t="s">
         <v>254</v>
       </c>
-      <c r="D156" t="s">
-        <v>257</v>
+      <c r="D156">
+        <v>1</v>
       </c>
       <c r="E156">
         <v>0.75</v>
@@ -6609,8 +6580,8 @@
       <c r="G156">
         <v>92.37656903765691</v>
       </c>
-      <c r="H156" t="s">
-        <v>260</v>
+      <c r="H156">
+        <v>0</v>
       </c>
       <c r="I156">
         <v>23</v>
@@ -6632,8 +6603,8 @@
       <c r="C157" t="s">
         <v>254</v>
       </c>
-      <c r="D157" t="s">
-        <v>257</v>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="E157">
         <v>0.25</v>
@@ -6644,8 +6615,8 @@
       <c r="G157">
         <v>110</v>
       </c>
-      <c r="H157" t="s">
-        <v>261</v>
+      <c r="H157">
+        <v>1</v>
       </c>
       <c r="I157">
         <v>21</v>
@@ -6667,8 +6638,8 @@
       <c r="C158" t="s">
         <v>255</v>
       </c>
-      <c r="D158" t="s">
-        <v>256</v>
+      <c r="D158">
+        <v>2</v>
       </c>
       <c r="E158">
         <v>-0.5</v>
@@ -6679,8 +6650,8 @@
       <c r="G158">
         <v>121</v>
       </c>
-      <c r="H158" t="s">
-        <v>259</v>
+      <c r="H158">
+        <v>1</v>
       </c>
       <c r="I158">
         <v>19</v>
@@ -6702,8 +6673,8 @@
       <c r="C159" t="s">
         <v>254</v>
       </c>
-      <c r="D159" t="s">
-        <v>258</v>
+      <c r="D159">
+        <v>0</v>
       </c>
       <c r="E159">
         <v>-0.75</v>
@@ -6714,8 +6685,8 @@
       <c r="G159">
         <v>120</v>
       </c>
-      <c r="H159" t="s">
-        <v>260</v>
+      <c r="H159">
+        <v>0</v>
       </c>
       <c r="I159">
         <v>16</v>
@@ -6737,8 +6708,8 @@
       <c r="C160" t="s">
         <v>254</v>
       </c>
-      <c r="D160" t="s">
-        <v>256</v>
+      <c r="D160">
+        <v>2</v>
       </c>
       <c r="E160">
         <v>4.25</v>
@@ -6749,8 +6720,8 @@
       <c r="G160">
         <v>100</v>
       </c>
-      <c r="H160" t="s">
-        <v>259</v>
+      <c r="H160">
+        <v>1</v>
       </c>
       <c r="I160">
         <v>18</v>
@@ -6772,8 +6743,8 @@
       <c r="C161" t="s">
         <v>255</v>
       </c>
-      <c r="D161" t="s">
-        <v>256</v>
+      <c r="D161">
+        <v>2</v>
       </c>
       <c r="E161">
         <v>-2.5</v>
@@ -6784,8 +6755,8 @@
       <c r="G161">
         <v>5</v>
       </c>
-      <c r="H161" t="s">
-        <v>260</v>
+      <c r="H161">
+        <v>0</v>
       </c>
       <c r="I161">
         <v>12</v>
@@ -6807,8 +6778,8 @@
       <c r="C162" t="s">
         <v>255</v>
       </c>
-      <c r="D162" t="s">
-        <v>256</v>
+      <c r="D162">
+        <v>2</v>
       </c>
       <c r="E162">
         <v>0.5</v>
@@ -6819,8 +6790,8 @@
       <c r="G162">
         <v>17</v>
       </c>
-      <c r="H162" t="s">
-        <v>259</v>
+      <c r="H162">
+        <v>1</v>
       </c>
       <c r="I162">
         <v>19</v>
@@ -6842,8 +6813,8 @@
       <c r="C163" t="s">
         <v>255</v>
       </c>
-      <c r="D163" t="s">
-        <v>258</v>
+      <c r="D163">
+        <v>0</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -6854,8 +6825,8 @@
       <c r="G163">
         <v>120</v>
       </c>
-      <c r="H163" t="s">
-        <v>260</v>
+      <c r="H163">
+        <v>0</v>
       </c>
       <c r="I163">
         <v>16</v>
@@ -6877,8 +6848,8 @@
       <c r="C164" t="s">
         <v>255</v>
       </c>
-      <c r="D164" t="s">
-        <v>256</v>
+      <c r="D164">
+        <v>2</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -6889,8 +6860,8 @@
       <c r="G164">
         <v>93</v>
       </c>
-      <c r="H164" t="s">
-        <v>260</v>
+      <c r="H164">
+        <v>0</v>
       </c>
       <c r="I164">
         <v>17</v>
@@ -6912,8 +6883,8 @@
       <c r="C165" t="s">
         <v>254</v>
       </c>
-      <c r="D165" t="s">
-        <v>257</v>
+      <c r="D165">
+        <v>1</v>
       </c>
       <c r="E165">
         <v>0.25</v>
@@ -6924,8 +6895,8 @@
       <c r="G165">
         <v>96</v>
       </c>
-      <c r="H165" t="s">
-        <v>260</v>
+      <c r="H165">
+        <v>0</v>
       </c>
       <c r="I165">
         <v>26</v>
@@ -6947,8 +6918,8 @@
       <c r="C166" t="s">
         <v>255</v>
       </c>
-      <c r="D166" t="s">
-        <v>256</v>
+      <c r="D166">
+        <v>2</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -6959,8 +6930,8 @@
       <c r="G166">
         <v>76</v>
       </c>
-      <c r="H166" t="s">
-        <v>259</v>
+      <c r="H166">
+        <v>1</v>
       </c>
       <c r="I166">
         <v>17</v>
@@ -6982,8 +6953,8 @@
       <c r="C167" t="s">
         <v>255</v>
       </c>
-      <c r="D167" t="s">
-        <v>256</v>
+      <c r="D167">
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0.75</v>
@@ -6994,8 +6965,8 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167" t="s">
-        <v>260</v>
+      <c r="H167">
+        <v>0</v>
       </c>
       <c r="I167">
         <v>11</v>
@@ -7017,8 +6988,8 @@
       <c r="C168" t="s">
         <v>254</v>
       </c>
-      <c r="D168" t="s">
-        <v>257</v>
+      <c r="D168">
+        <v>1</v>
       </c>
       <c r="E168">
         <v>3.5</v>
@@ -7029,8 +7000,8 @@
       <c r="G168">
         <v>82</v>
       </c>
-      <c r="H168" t="s">
-        <v>260</v>
+      <c r="H168">
+        <v>0</v>
       </c>
       <c r="I168">
         <v>16</v>
@@ -7052,8 +7023,8 @@
       <c r="C169" t="s">
         <v>254</v>
       </c>
-      <c r="D169" t="s">
-        <v>256</v>
+      <c r="D169">
+        <v>2</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7064,8 +7035,8 @@
       <c r="G169">
         <v>100</v>
       </c>
-      <c r="H169" t="s">
-        <v>259</v>
+      <c r="H169">
+        <v>1</v>
       </c>
       <c r="I169">
         <v>15</v>
@@ -7087,8 +7058,8 @@
       <c r="C170" t="s">
         <v>254</v>
       </c>
-      <c r="D170" t="s">
-        <v>256</v>
+      <c r="D170">
+        <v>2</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -7099,8 +7070,8 @@
       <c r="G170">
         <v>80</v>
       </c>
-      <c r="H170" t="s">
-        <v>260</v>
+      <c r="H170">
+        <v>0</v>
       </c>
       <c r="I170">
         <v>16</v>
@@ -7122,8 +7093,8 @@
       <c r="C171" t="s">
         <v>255</v>
       </c>
-      <c r="D171" t="s">
-        <v>256</v>
+      <c r="D171">
+        <v>2</v>
       </c>
       <c r="E171">
         <v>-0.75</v>
@@ -7134,8 +7105,8 @@
       <c r="G171">
         <v>76</v>
       </c>
-      <c r="H171" t="s">
-        <v>259</v>
+      <c r="H171">
+        <v>1</v>
       </c>
       <c r="I171">
         <v>16</v>
@@ -7157,8 +7128,8 @@
       <c r="C172" t="s">
         <v>254</v>
       </c>
-      <c r="D172" t="s">
-        <v>256</v>
+      <c r="D172">
+        <v>2</v>
       </c>
       <c r="E172">
         <v>0.75</v>
@@ -7169,8 +7140,8 @@
       <c r="G172">
         <v>80</v>
       </c>
-      <c r="H172" t="s">
-        <v>259</v>
+      <c r="H172">
+        <v>1</v>
       </c>
       <c r="I172">
         <v>19</v>
@@ -7192,8 +7163,8 @@
       <c r="C173" t="s">
         <v>254</v>
       </c>
-      <c r="D173" t="s">
-        <v>256</v>
+      <c r="D173">
+        <v>2</v>
       </c>
       <c r="E173">
         <v>-2.25</v>
@@ -7204,8 +7175,8 @@
       <c r="G173">
         <v>177</v>
       </c>
-      <c r="H173" t="s">
-        <v>260</v>
+      <c r="H173">
+        <v>0</v>
       </c>
       <c r="I173">
         <v>16</v>
@@ -7227,8 +7198,8 @@
       <c r="C174" t="s">
         <v>255</v>
       </c>
-      <c r="D174" t="s">
-        <v>256</v>
+      <c r="D174">
+        <v>2</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -7239,8 +7210,8 @@
       <c r="G174">
         <v>50</v>
       </c>
-      <c r="H174" t="s">
-        <v>260</v>
+      <c r="H174">
+        <v>0</v>
       </c>
       <c r="I174">
         <v>15</v>
@@ -7262,8 +7233,8 @@
       <c r="C175" t="s">
         <v>255</v>
       </c>
-      <c r="D175" t="s">
-        <v>258</v>
+      <c r="D175">
+        <v>0</v>
       </c>
       <c r="E175">
         <v>0.75</v>
@@ -7274,8 +7245,8 @@
       <c r="G175">
         <v>109</v>
       </c>
-      <c r="H175" t="s">
-        <v>260</v>
+      <c r="H175">
+        <v>0</v>
       </c>
       <c r="I175">
         <v>18</v>
@@ -7297,8 +7268,8 @@
       <c r="C176" t="s">
         <v>255</v>
       </c>
-      <c r="D176" t="s">
-        <v>256</v>
+      <c r="D176">
+        <v>2</v>
       </c>
       <c r="E176">
         <v>1.25</v>
@@ -7309,8 +7280,8 @@
       <c r="G176">
         <v>85</v>
       </c>
-      <c r="H176" t="s">
-        <v>259</v>
+      <c r="H176">
+        <v>1</v>
       </c>
       <c r="I176">
         <v>17</v>
@@ -7332,8 +7303,8 @@
       <c r="C177" t="s">
         <v>254</v>
       </c>
-      <c r="D177" t="s">
-        <v>256</v>
+      <c r="D177">
+        <v>2</v>
       </c>
       <c r="E177">
         <v>-0.5</v>
@@ -7344,8 +7315,8 @@
       <c r="G177">
         <v>15</v>
       </c>
-      <c r="H177" t="s">
-        <v>259</v>
+      <c r="H177">
+        <v>1</v>
       </c>
       <c r="I177">
         <v>19</v>
@@ -7367,8 +7338,8 @@
       <c r="C178" t="s">
         <v>255</v>
       </c>
-      <c r="D178" t="s">
-        <v>257</v>
+      <c r="D178">
+        <v>1</v>
       </c>
       <c r="E178">
         <v>1.25</v>
@@ -7379,8 +7350,8 @@
       <c r="G178">
         <v>97</v>
       </c>
-      <c r="H178" t="s">
-        <v>260</v>
+      <c r="H178">
+        <v>0</v>
       </c>
       <c r="I178">
         <v>15</v>
@@ -7402,8 +7373,8 @@
       <c r="C179" t="s">
         <v>254</v>
       </c>
-      <c r="D179" t="s">
-        <v>256</v>
+      <c r="D179">
+        <v>2</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -7414,8 +7385,8 @@
       <c r="G179">
         <v>82</v>
       </c>
-      <c r="H179" t="s">
-        <v>260</v>
+      <c r="H179">
+        <v>0</v>
       </c>
       <c r="I179">
         <v>21</v>
@@ -7437,8 +7408,8 @@
       <c r="C180" t="s">
         <v>255</v>
       </c>
-      <c r="D180" t="s">
-        <v>257</v>
+      <c r="D180">
+        <v>1</v>
       </c>
       <c r="E180">
         <v>-0.25</v>
@@ -7449,8 +7420,8 @@
       <c r="G180">
         <v>0</v>
       </c>
-      <c r="H180" t="s">
-        <v>259</v>
+      <c r="H180">
+        <v>1</v>
       </c>
       <c r="I180">
         <v>14</v>
@@ -7472,8 +7443,8 @@
       <c r="C181" t="s">
         <v>255</v>
       </c>
-      <c r="D181" t="s">
-        <v>257</v>
+      <c r="D181">
+        <v>1</v>
       </c>
       <c r="E181">
         <v>2.5</v>
@@ -7484,8 +7455,8 @@
       <c r="G181">
         <v>90</v>
       </c>
-      <c r="H181" t="s">
-        <v>260</v>
+      <c r="H181">
+        <v>0</v>
       </c>
       <c r="I181">
         <v>16</v>
@@ -7507,8 +7478,8 @@
       <c r="C182" t="s">
         <v>255</v>
       </c>
-      <c r="D182" t="s">
-        <v>256</v>
+      <c r="D182">
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0.25</v>
@@ -7519,8 +7490,8 @@
       <c r="G182">
         <v>37</v>
       </c>
-      <c r="H182" t="s">
-        <v>260</v>
+      <c r="H182">
+        <v>0</v>
       </c>
       <c r="I182">
         <v>15</v>
@@ -7542,8 +7513,8 @@
       <c r="C183" t="s">
         <v>255</v>
       </c>
-      <c r="D183" t="s">
-        <v>256</v>
+      <c r="D183">
+        <v>2</v>
       </c>
       <c r="E183">
         <v>3.75</v>
@@ -7554,8 +7525,8 @@
       <c r="G183">
         <v>95</v>
       </c>
-      <c r="H183" t="s">
-        <v>259</v>
+      <c r="H183">
+        <v>1</v>
       </c>
       <c r="I183">
         <v>12</v>
@@ -7577,8 +7548,8 @@
       <c r="C184" t="s">
         <v>255</v>
       </c>
-      <c r="D184" t="s">
-        <v>256</v>
+      <c r="D184">
+        <v>2</v>
       </c>
       <c r="E184">
         <v>0.75</v>
@@ -7589,8 +7560,8 @@
       <c r="G184">
         <v>150</v>
       </c>
-      <c r="H184" t="s">
-        <v>260</v>
+      <c r="H184">
+        <v>0</v>
       </c>
       <c r="I184">
         <v>12</v>
@@ -7612,8 +7583,8 @@
       <c r="C185" t="s">
         <v>255</v>
       </c>
-      <c r="D185" t="s">
-        <v>258</v>
+      <c r="D185">
+        <v>0</v>
       </c>
       <c r="E185">
         <v>-1.25</v>
@@ -7624,8 +7595,8 @@
       <c r="G185">
         <v>36</v>
       </c>
-      <c r="H185" t="s">
-        <v>260</v>
+      <c r="H185">
+        <v>0</v>
       </c>
       <c r="I185">
         <v>17</v>
@@ -7647,8 +7618,8 @@
       <c r="C186" t="s">
         <v>255</v>
       </c>
-      <c r="D186" t="s">
-        <v>256</v>
+      <c r="D186">
+        <v>2</v>
       </c>
       <c r="E186">
         <v>0.5</v>
@@ -7659,8 +7630,8 @@
       <c r="G186">
         <v>153</v>
       </c>
-      <c r="H186" t="s">
-        <v>260</v>
+      <c r="H186">
+        <v>0</v>
       </c>
       <c r="I186">
         <v>11</v>
@@ -7682,8 +7653,8 @@
       <c r="C187" t="s">
         <v>255</v>
       </c>
-      <c r="D187" t="s">
-        <v>258</v>
+      <c r="D187">
+        <v>0</v>
       </c>
       <c r="E187">
         <v>2.25</v>
@@ -7694,8 +7665,8 @@
       <c r="G187">
         <v>85</v>
       </c>
-      <c r="H187" t="s">
-        <v>260</v>
+      <c r="H187">
+        <v>0</v>
       </c>
       <c r="I187">
         <v>16</v>
@@ -7717,8 +7688,8 @@
       <c r="C188" t="s">
         <v>254</v>
       </c>
-      <c r="D188" t="s">
-        <v>256</v>
+      <c r="D188">
+        <v>2</v>
       </c>
       <c r="E188">
         <v>1.25</v>
@@ -7729,8 +7700,8 @@
       <c r="G188">
         <v>92</v>
       </c>
-      <c r="H188" t="s">
-        <v>259</v>
+      <c r="H188">
+        <v>1</v>
       </c>
       <c r="I188">
         <v>12</v>
@@ -7752,8 +7723,8 @@
       <c r="C189" t="s">
         <v>254</v>
       </c>
-      <c r="D189" t="s">
-        <v>257</v>
+      <c r="D189">
+        <v>1</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -7764,8 +7735,8 @@
       <c r="G189">
         <v>135</v>
       </c>
-      <c r="H189" t="s">
-        <v>260</v>
+      <c r="H189">
+        <v>0</v>
       </c>
       <c r="I189">
         <v>15</v>
@@ -7787,8 +7758,8 @@
       <c r="C190" t="s">
         <v>255</v>
       </c>
-      <c r="D190" t="s">
-        <v>256</v>
+      <c r="D190">
+        <v>2</v>
       </c>
       <c r="E190">
         <v>-3.25</v>
@@ -7799,8 +7770,8 @@
       <c r="G190">
         <v>35</v>
       </c>
-      <c r="H190" t="s">
-        <v>260</v>
+      <c r="H190">
+        <v>0</v>
       </c>
       <c r="I190">
         <v>16</v>
@@ -7822,8 +7793,8 @@
       <c r="C191" t="s">
         <v>255</v>
       </c>
-      <c r="D191" t="s">
-        <v>256</v>
+      <c r="D191">
+        <v>2</v>
       </c>
       <c r="E191">
         <v>-1</v>
@@ -7834,8 +7805,8 @@
       <c r="G191">
         <v>25</v>
       </c>
-      <c r="H191" t="s">
-        <v>259</v>
+      <c r="H191">
+        <v>1</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -7857,8 +7828,8 @@
       <c r="C192" t="s">
         <v>255</v>
       </c>
-      <c r="D192" t="s">
-        <v>256</v>
+      <c r="D192">
+        <v>2</v>
       </c>
       <c r="E192">
         <v>0.75</v>
@@ -7869,8 +7840,8 @@
       <c r="G192">
         <v>93</v>
       </c>
-      <c r="H192" t="s">
-        <v>260</v>
+      <c r="H192">
+        <v>0</v>
       </c>
       <c r="I192">
         <v>20</v>
@@ -7892,8 +7863,8 @@
       <c r="C193" t="s">
         <v>255</v>
       </c>
-      <c r="D193" t="s">
-        <v>256</v>
+      <c r="D193">
+        <v>2</v>
       </c>
       <c r="E193">
         <v>-1</v>
@@ -7904,8 +7875,8 @@
       <c r="G193">
         <v>120</v>
       </c>
-      <c r="H193" t="s">
-        <v>260</v>
+      <c r="H193">
+        <v>0</v>
       </c>
       <c r="I193">
         <v>24</v>
@@ -7927,8 +7898,8 @@
       <c r="C194" t="s">
         <v>254</v>
       </c>
-      <c r="D194" t="s">
-        <v>256</v>
+      <c r="D194">
+        <v>2</v>
       </c>
       <c r="E194">
         <v>-1</v>
@@ -7939,8 +7910,8 @@
       <c r="G194">
         <v>92.37656903765691</v>
       </c>
-      <c r="H194" t="s">
-        <v>260</v>
+      <c r="H194">
+        <v>0</v>
       </c>
       <c r="I194">
         <v>11</v>
@@ -7962,8 +7933,8 @@
       <c r="C195" t="s">
         <v>255</v>
       </c>
-      <c r="D195" t="s">
-        <v>256</v>
+      <c r="D195">
+        <v>2</v>
       </c>
       <c r="E195">
         <v>2.75</v>
@@ -7974,8 +7945,8 @@
       <c r="G195">
         <v>72</v>
       </c>
-      <c r="H195" t="s">
-        <v>259</v>
+      <c r="H195">
+        <v>1</v>
       </c>
       <c r="I195">
         <v>15</v>
@@ -7997,8 +7968,8 @@
       <c r="C196" t="s">
         <v>254</v>
       </c>
-      <c r="D196" t="s">
-        <v>256</v>
+      <c r="D196">
+        <v>2</v>
       </c>
       <c r="E196">
         <v>-2.5</v>
@@ -8009,8 +7980,8 @@
       <c r="G196">
         <v>123</v>
       </c>
-      <c r="H196" t="s">
-        <v>260</v>
+      <c r="H196">
+        <v>0</v>
       </c>
       <c r="I196">
         <v>17</v>
@@ -8032,8 +8003,8 @@
       <c r="C197" t="s">
         <v>255</v>
       </c>
-      <c r="D197" t="s">
-        <v>256</v>
+      <c r="D197">
+        <v>2</v>
       </c>
       <c r="E197">
         <v>-0.5</v>
@@ -8044,8 +8015,8 @@
       <c r="G197">
         <v>108</v>
       </c>
-      <c r="H197" t="s">
-        <v>260</v>
+      <c r="H197">
+        <v>0</v>
       </c>
       <c r="I197">
         <v>13</v>
@@ -8067,8 +8038,8 @@
       <c r="C198" t="s">
         <v>255</v>
       </c>
-      <c r="D198" t="s">
-        <v>256</v>
+      <c r="D198">
+        <v>2</v>
       </c>
       <c r="E198">
         <v>3.75</v>
@@ -8079,8 +8050,8 @@
       <c r="G198">
         <v>95</v>
       </c>
-      <c r="H198" t="s">
-        <v>260</v>
+      <c r="H198">
+        <v>0</v>
       </c>
       <c r="I198">
         <v>19</v>
@@ -8102,8 +8073,8 @@
       <c r="C199" t="s">
         <v>254</v>
       </c>
-      <c r="D199" t="s">
-        <v>256</v>
+      <c r="D199">
+        <v>2</v>
       </c>
       <c r="E199">
         <v>-2.5</v>
@@ -8114,8 +8085,8 @@
       <c r="G199">
         <v>5</v>
       </c>
-      <c r="H199" t="s">
-        <v>260</v>
+      <c r="H199">
+        <v>0</v>
       </c>
       <c r="I199">
         <v>16</v>
@@ -8137,8 +8108,8 @@
       <c r="C200" t="s">
         <v>255</v>
       </c>
-      <c r="D200" t="s">
-        <v>256</v>
+      <c r="D200">
+        <v>2</v>
       </c>
       <c r="E200">
         <v>3.25</v>
@@ -8149,8 +8120,8 @@
       <c r="G200">
         <v>3</v>
       </c>
-      <c r="H200" t="s">
-        <v>261</v>
+      <c r="H200">
+        <v>1</v>
       </c>
       <c r="I200">
         <v>13</v>
@@ -8172,8 +8143,8 @@
       <c r="C201" t="s">
         <v>255</v>
       </c>
-      <c r="D201" t="s">
-        <v>256</v>
+      <c r="D201">
+        <v>2</v>
       </c>
       <c r="E201">
         <v>0.25</v>
@@ -8184,8 +8155,8 @@
       <c r="G201">
         <v>30</v>
       </c>
-      <c r="H201" t="s">
-        <v>260</v>
+      <c r="H201">
+        <v>0</v>
       </c>
       <c r="I201">
         <v>16</v>
@@ -8207,8 +8178,8 @@
       <c r="C202" t="s">
         <v>255</v>
       </c>
-      <c r="D202" t="s">
-        <v>256</v>
+      <c r="D202">
+        <v>2</v>
       </c>
       <c r="E202">
         <v>1.75</v>
@@ -8219,8 +8190,8 @@
       <c r="G202">
         <v>70</v>
       </c>
-      <c r="H202" t="s">
-        <v>259</v>
+      <c r="H202">
+        <v>1</v>
       </c>
       <c r="I202">
         <v>16</v>
@@ -8242,8 +8213,8 @@
       <c r="C203" t="s">
         <v>255</v>
       </c>
-      <c r="D203" t="s">
-        <v>256</v>
+      <c r="D203">
+        <v>2</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -8254,8 +8225,8 @@
       <c r="G203">
         <v>133</v>
       </c>
-      <c r="H203" t="s">
-        <v>260</v>
+      <c r="H203">
+        <v>0</v>
       </c>
       <c r="I203">
         <v>23</v>
@@ -8277,8 +8248,8 @@
       <c r="C204" t="s">
         <v>255</v>
       </c>
-      <c r="D204" t="s">
-        <v>256</v>
+      <c r="D204">
+        <v>2</v>
       </c>
       <c r="E204">
         <v>0.25</v>
@@ -8289,8 +8260,8 @@
       <c r="G204">
         <v>80</v>
       </c>
-      <c r="H204" t="s">
-        <v>260</v>
+      <c r="H204">
+        <v>0</v>
       </c>
       <c r="I204">
         <v>12</v>
@@ -8312,8 +8283,8 @@
       <c r="C205" t="s">
         <v>255</v>
       </c>
-      <c r="D205" t="s">
-        <v>256</v>
+      <c r="D205">
+        <v>2</v>
       </c>
       <c r="E205">
         <v>1.75</v>
@@ -8324,8 +8295,8 @@
       <c r="G205">
         <v>125</v>
       </c>
-      <c r="H205" t="s">
-        <v>260</v>
+      <c r="H205">
+        <v>0</v>
       </c>
       <c r="I205">
         <v>18</v>
@@ -8347,8 +8318,8 @@
       <c r="C206" t="s">
         <v>254</v>
       </c>
-      <c r="D206" t="s">
-        <v>256</v>
+      <c r="D206">
+        <v>2</v>
       </c>
       <c r="E206">
         <v>5.75</v>
@@ -8359,8 +8330,8 @@
       <c r="G206">
         <v>10</v>
       </c>
-      <c r="H206" t="s">
-        <v>259</v>
+      <c r="H206">
+        <v>1</v>
       </c>
       <c r="I206">
         <v>15</v>
@@ -8382,8 +8353,8 @@
       <c r="C207" t="s">
         <v>255</v>
       </c>
-      <c r="D207" t="s">
-        <v>258</v>
+      <c r="D207">
+        <v>0</v>
       </c>
       <c r="E207">
         <v>0.25</v>
@@ -8394,8 +8365,8 @@
       <c r="G207">
         <v>155</v>
       </c>
-      <c r="H207" t="s">
-        <v>259</v>
+      <c r="H207">
+        <v>1</v>
       </c>
       <c r="I207">
         <v>11</v>
@@ -8417,8 +8388,8 @@
       <c r="C208" t="s">
         <v>254</v>
       </c>
-      <c r="D208" t="s">
-        <v>257</v>
+      <c r="D208">
+        <v>1</v>
       </c>
       <c r="E208">
         <v>0.75</v>
@@ -8429,8 +8400,8 @@
       <c r="G208">
         <v>90</v>
       </c>
-      <c r="H208" t="s">
-        <v>259</v>
+      <c r="H208">
+        <v>1</v>
       </c>
       <c r="I208">
         <v>21</v>
@@ -8452,8 +8423,8 @@
       <c r="C209" t="s">
         <v>255</v>
       </c>
-      <c r="D209" t="s">
-        <v>256</v>
+      <c r="D209">
+        <v>2</v>
       </c>
       <c r="E209">
         <v>0.5</v>
@@ -8464,8 +8435,8 @@
       <c r="G209">
         <v>94</v>
       </c>
-      <c r="H209" t="s">
-        <v>260</v>
+      <c r="H209">
+        <v>0</v>
       </c>
       <c r="I209">
         <v>15</v>
@@ -8487,8 +8458,8 @@
       <c r="C210" t="s">
         <v>255</v>
       </c>
-      <c r="D210" t="s">
-        <v>256</v>
+      <c r="D210">
+        <v>2</v>
       </c>
       <c r="E210">
         <v>4</v>
@@ -8499,8 +8470,8 @@
       <c r="G210">
         <v>95</v>
       </c>
-      <c r="H210" t="s">
-        <v>260</v>
+      <c r="H210">
+        <v>0</v>
       </c>
       <c r="I210">
         <v>14</v>
@@ -8522,8 +8493,8 @@
       <c r="C211" t="s">
         <v>254</v>
       </c>
-      <c r="D211" t="s">
-        <v>258</v>
+      <c r="D211">
+        <v>0</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -8534,8 +8505,8 @@
       <c r="G211">
         <v>100</v>
       </c>
-      <c r="H211" t="s">
-        <v>260</v>
+      <c r="H211">
+        <v>0</v>
       </c>
       <c r="I211">
         <v>18</v>
@@ -8557,8 +8528,8 @@
       <c r="C212" t="s">
         <v>255</v>
       </c>
-      <c r="D212" t="s">
-        <v>256</v>
+      <c r="D212">
+        <v>2</v>
       </c>
       <c r="E212">
         <v>1.5</v>
@@ -8569,8 +8540,8 @@
       <c r="G212">
         <v>105</v>
       </c>
-      <c r="H212" t="s">
-        <v>259</v>
+      <c r="H212">
+        <v>1</v>
       </c>
       <c r="I212">
         <v>14</v>
@@ -8592,8 +8563,8 @@
       <c r="C213" t="s">
         <v>255</v>
       </c>
-      <c r="D213" t="s">
-        <v>256</v>
+      <c r="D213">
+        <v>2</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -8604,8 +8575,8 @@
       <c r="G213">
         <v>130</v>
       </c>
-      <c r="H213" t="s">
-        <v>260</v>
+      <c r="H213">
+        <v>0</v>
       </c>
       <c r="I213">
         <v>12</v>
@@ -8627,8 +8598,8 @@
       <c r="C214" t="s">
         <v>254</v>
       </c>
-      <c r="D214" t="s">
-        <v>256</v>
+      <c r="D214">
+        <v>2</v>
       </c>
       <c r="E214">
         <v>0.75</v>
@@ -8639,8 +8610,8 @@
       <c r="G214">
         <v>85</v>
       </c>
-      <c r="H214" t="s">
-        <v>259</v>
+      <c r="H214">
+        <v>1</v>
       </c>
       <c r="I214">
         <v>13</v>
@@ -8662,8 +8633,8 @@
       <c r="C215" t="s">
         <v>254</v>
       </c>
-      <c r="D215" t="s">
-        <v>256</v>
+      <c r="D215">
+        <v>2</v>
       </c>
       <c r="E215">
         <v>2.25</v>
@@ -8674,8 +8645,8 @@
       <c r="G215">
         <v>107</v>
       </c>
-      <c r="H215" t="s">
-        <v>260</v>
+      <c r="H215">
+        <v>0</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -8697,8 +8668,8 @@
       <c r="C216" t="s">
         <v>255</v>
       </c>
-      <c r="D216" t="s">
-        <v>256</v>
+      <c r="D216">
+        <v>2</v>
       </c>
       <c r="E216">
         <v>0.75</v>
@@ -8709,8 +8680,8 @@
       <c r="G216">
         <v>165</v>
       </c>
-      <c r="H216" t="s">
-        <v>260</v>
+      <c r="H216">
+        <v>0</v>
       </c>
       <c r="I216">
         <v>13</v>
@@ -8732,8 +8703,8 @@
       <c r="C217" t="s">
         <v>255</v>
       </c>
-      <c r="D217" t="s">
-        <v>258</v>
+      <c r="D217">
+        <v>0</v>
       </c>
       <c r="E217">
         <v>1.5</v>
@@ -8744,8 +8715,8 @@
       <c r="G217">
         <v>85</v>
       </c>
-      <c r="H217" t="s">
-        <v>259</v>
+      <c r="H217">
+        <v>1</v>
       </c>
       <c r="I217">
         <v>16</v>
@@ -8767,8 +8738,8 @@
       <c r="C218" t="s">
         <v>255</v>
       </c>
-      <c r="D218" t="s">
-        <v>256</v>
+      <c r="D218">
+        <v>2</v>
       </c>
       <c r="E218">
         <v>-1.25</v>
@@ -8779,8 +8750,8 @@
       <c r="G218">
         <v>76</v>
       </c>
-      <c r="H218" t="s">
-        <v>260</v>
+      <c r="H218">
+        <v>0</v>
       </c>
       <c r="I218">
         <v>13</v>
@@ -8802,8 +8773,8 @@
       <c r="C219" t="s">
         <v>255</v>
       </c>
-      <c r="D219" t="s">
-        <v>256</v>
+      <c r="D219">
+        <v>2</v>
       </c>
       <c r="E219">
         <v>-3</v>
@@ -8814,8 +8785,8 @@
       <c r="G219">
         <v>10</v>
       </c>
-      <c r="H219" t="s">
-        <v>259</v>
+      <c r="H219">
+        <v>1</v>
       </c>
       <c r="I219">
         <v>16</v>
@@ -8837,8 +8808,8 @@
       <c r="C220" t="s">
         <v>255</v>
       </c>
-      <c r="D220" t="s">
-        <v>258</v>
+      <c r="D220">
+        <v>0</v>
       </c>
       <c r="E220">
         <v>2.25</v>
@@ -8849,8 +8820,8 @@
       <c r="G220">
         <v>105</v>
       </c>
-      <c r="H220" t="s">
-        <v>259</v>
+      <c r="H220">
+        <v>1</v>
       </c>
       <c r="I220">
         <v>16</v>
@@ -8872,8 +8843,8 @@
       <c r="C221" t="s">
         <v>255</v>
       </c>
-      <c r="D221" t="s">
-        <v>256</v>
+      <c r="D221">
+        <v>2</v>
       </c>
       <c r="E221">
         <v>1.75</v>
@@ -8884,8 +8855,8 @@
       <c r="G221">
         <v>85</v>
       </c>
-      <c r="H221" t="s">
-        <v>260</v>
+      <c r="H221">
+        <v>0</v>
       </c>
       <c r="I221">
         <v>13</v>
@@ -8907,8 +8878,8 @@
       <c r="C222" t="s">
         <v>255</v>
       </c>
-      <c r="D222" t="s">
-        <v>256</v>
+      <c r="D222">
+        <v>2</v>
       </c>
       <c r="E222">
         <v>0.5</v>
@@ -8919,8 +8890,8 @@
       <c r="G222">
         <v>35</v>
       </c>
-      <c r="H222" t="s">
-        <v>259</v>
+      <c r="H222">
+        <v>1</v>
       </c>
       <c r="I222">
         <v>14</v>
@@ -8942,8 +8913,8 @@
       <c r="C223" t="s">
         <v>255</v>
       </c>
-      <c r="D223" t="s">
-        <v>256</v>
+      <c r="D223">
+        <v>2</v>
       </c>
       <c r="E223">
         <v>0.25</v>
@@ -8954,8 +8925,8 @@
       <c r="G223">
         <v>108</v>
       </c>
-      <c r="H223" t="s">
-        <v>260</v>
+      <c r="H223">
+        <v>0</v>
       </c>
       <c r="I223">
         <v>22.7</v>
@@ -8977,8 +8948,8 @@
       <c r="C224" t="s">
         <v>255</v>
       </c>
-      <c r="D224" t="s">
-        <v>257</v>
+      <c r="D224">
+        <v>1</v>
       </c>
       <c r="E224">
         <v>1.75</v>
@@ -8989,8 +8960,8 @@
       <c r="G224">
         <v>70</v>
       </c>
-      <c r="H224" t="s">
-        <v>260</v>
+      <c r="H224">
+        <v>0</v>
       </c>
       <c r="I224">
         <v>25</v>
@@ -9012,8 +8983,8 @@
       <c r="C225" t="s">
         <v>255</v>
       </c>
-      <c r="D225" t="s">
-        <v>256</v>
+      <c r="D225">
+        <v>2</v>
       </c>
       <c r="E225">
         <v>-0.75</v>
@@ -9024,8 +8995,8 @@
       <c r="G225">
         <v>143</v>
       </c>
-      <c r="H225" t="s">
-        <v>260</v>
+      <c r="H225">
+        <v>0</v>
       </c>
       <c r="I225">
         <v>13</v>
@@ -9047,8 +9018,8 @@
       <c r="C226" t="s">
         <v>255</v>
       </c>
-      <c r="D226" t="s">
-        <v>258</v>
+      <c r="D226">
+        <v>0</v>
       </c>
       <c r="E226">
         <v>0.5</v>
@@ -9059,8 +9030,8 @@
       <c r="G226">
         <v>30</v>
       </c>
-      <c r="H226" t="s">
-        <v>260</v>
+      <c r="H226">
+        <v>0</v>
       </c>
       <c r="I226">
         <v>16</v>
@@ -9082,8 +9053,8 @@
       <c r="C227" t="s">
         <v>255</v>
       </c>
-      <c r="D227" t="s">
-        <v>256</v>
+      <c r="D227">
+        <v>2</v>
       </c>
       <c r="E227">
         <v>-1.75</v>
@@ -9094,8 +9065,8 @@
       <c r="G227">
         <v>90</v>
       </c>
-      <c r="H227" t="s">
-        <v>259</v>
+      <c r="H227">
+        <v>1</v>
       </c>
       <c r="I227">
         <v>22</v>
@@ -9117,8 +9088,8 @@
       <c r="C228" t="s">
         <v>254</v>
       </c>
-      <c r="D228" t="s">
-        <v>256</v>
+      <c r="D228">
+        <v>2</v>
       </c>
       <c r="E228">
         <v>1.75</v>
@@ -9129,8 +9100,8 @@
       <c r="G228">
         <v>111</v>
       </c>
-      <c r="H228" t="s">
-        <v>260</v>
+      <c r="H228">
+        <v>0</v>
       </c>
       <c r="I228">
         <v>21.5</v>
@@ -9152,8 +9123,8 @@
       <c r="C229" t="s">
         <v>255</v>
       </c>
-      <c r="D229" t="s">
-        <v>256</v>
+      <c r="D229">
+        <v>2</v>
       </c>
       <c r="E229">
         <v>1.5</v>
@@ -9164,8 +9135,8 @@
       <c r="G229">
         <v>6</v>
       </c>
-      <c r="H229" t="s">
-        <v>260</v>
+      <c r="H229">
+        <v>0</v>
       </c>
       <c r="I229">
         <v>14</v>
@@ -9187,8 +9158,8 @@
       <c r="C230" t="s">
         <v>255</v>
       </c>
-      <c r="D230" t="s">
-        <v>256</v>
+      <c r="D230">
+        <v>2</v>
       </c>
       <c r="E230">
         <v>3.25</v>
@@ -9199,8 +9170,8 @@
       <c r="G230">
         <v>60</v>
       </c>
-      <c r="H230" t="s">
-        <v>259</v>
+      <c r="H230">
+        <v>1</v>
       </c>
       <c r="I230">
         <v>17</v>
@@ -9222,8 +9193,8 @@
       <c r="C231" t="s">
         <v>254</v>
       </c>
-      <c r="D231" t="s">
-        <v>256</v>
+      <c r="D231">
+        <v>2</v>
       </c>
       <c r="E231">
         <v>0.5</v>
@@ -9234,8 +9205,8 @@
       <c r="G231">
         <v>32</v>
       </c>
-      <c r="H231" t="s">
-        <v>259</v>
+      <c r="H231">
+        <v>1</v>
       </c>
       <c r="I231">
         <v>14</v>
@@ -9257,8 +9228,8 @@
       <c r="C232" t="s">
         <v>255</v>
       </c>
-      <c r="D232" t="s">
-        <v>256</v>
+      <c r="D232">
+        <v>2</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -9269,8 +9240,8 @@
       <c r="G232">
         <v>5</v>
       </c>
-      <c r="H232" t="s">
-        <v>260</v>
+      <c r="H232">
+        <v>0</v>
       </c>
       <c r="I232">
         <v>14</v>
@@ -9292,8 +9263,8 @@
       <c r="C233" t="s">
         <v>254</v>
       </c>
-      <c r="D233" t="s">
-        <v>256</v>
+      <c r="D233">
+        <v>2</v>
       </c>
       <c r="E233">
         <v>-0.25</v>
@@ -9304,8 +9275,8 @@
       <c r="G233">
         <v>27</v>
       </c>
-      <c r="H233" t="s">
-        <v>260</v>
+      <c r="H233">
+        <v>0</v>
       </c>
       <c r="I233">
         <v>12</v>
@@ -9327,8 +9298,8 @@
       <c r="C234" t="s">
         <v>254</v>
       </c>
-      <c r="D234" t="s">
-        <v>256</v>
+      <c r="D234">
+        <v>2</v>
       </c>
       <c r="E234">
         <v>0.5</v>
@@ -9339,8 +9310,8 @@
       <c r="G234">
         <v>120</v>
       </c>
-      <c r="H234" t="s">
-        <v>260</v>
+      <c r="H234">
+        <v>0</v>
       </c>
       <c r="I234">
         <v>12</v>
@@ -9362,8 +9333,8 @@
       <c r="C235" t="s">
         <v>254</v>
       </c>
-      <c r="D235" t="s">
-        <v>256</v>
+      <c r="D235">
+        <v>2</v>
       </c>
       <c r="E235">
         <v>-2.25</v>
@@ -9374,8 +9345,8 @@
       <c r="G235">
         <v>10</v>
       </c>
-      <c r="H235" t="s">
-        <v>260</v>
+      <c r="H235">
+        <v>0</v>
       </c>
       <c r="I235">
         <v>15</v>
@@ -9397,8 +9368,8 @@
       <c r="C236" t="s">
         <v>255</v>
       </c>
-      <c r="D236" t="s">
-        <v>256</v>
+      <c r="D236">
+        <v>2</v>
       </c>
       <c r="E236">
         <v>0.5</v>
@@ -9409,8 +9380,8 @@
       <c r="G236">
         <v>35</v>
       </c>
-      <c r="H236" t="s">
-        <v>259</v>
+      <c r="H236">
+        <v>1</v>
       </c>
       <c r="I236">
         <v>14</v>
@@ -9432,8 +9403,8 @@
       <c r="C237" t="s">
         <v>255</v>
       </c>
-      <c r="D237" t="s">
-        <v>256</v>
+      <c r="D237">
+        <v>2</v>
       </c>
       <c r="E237">
         <v>-0.5</v>
@@ -9444,8 +9415,8 @@
       <c r="G237">
         <v>95</v>
       </c>
-      <c r="H237" t="s">
-        <v>260</v>
+      <c r="H237">
+        <v>0</v>
       </c>
       <c r="I237">
         <v>18</v>
@@ -9467,8 +9438,8 @@
       <c r="C238" t="s">
         <v>255</v>
       </c>
-      <c r="D238" t="s">
-        <v>258</v>
+      <c r="D238">
+        <v>0</v>
       </c>
       <c r="E238">
         <v>-4</v>
@@ -9479,8 +9450,8 @@
       <c r="G238">
         <v>167</v>
       </c>
-      <c r="H238" t="s">
-        <v>260</v>
+      <c r="H238">
+        <v>0</v>
       </c>
       <c r="I238">
         <v>16</v>
@@ -9502,8 +9473,8 @@
       <c r="C239" t="s">
         <v>255</v>
       </c>
-      <c r="D239" t="s">
-        <v>256</v>
+      <c r="D239">
+        <v>2</v>
       </c>
       <c r="E239">
         <v>3</v>
@@ -9514,8 +9485,8 @@
       <c r="G239">
         <v>78</v>
       </c>
-      <c r="H239" t="s">
-        <v>260</v>
+      <c r="H239">
+        <v>0</v>
       </c>
       <c r="I239">
         <v>20</v>
@@ -9537,8 +9508,8 @@
       <c r="C240" t="s">
         <v>255</v>
       </c>
-      <c r="D240" t="s">
-        <v>257</v>
+      <c r="D240">
+        <v>1</v>
       </c>
       <c r="E240">
         <v>0.75</v>
@@ -9549,8 +9520,8 @@
       <c r="G240">
         <v>10</v>
       </c>
-      <c r="H240" t="s">
-        <v>260</v>
+      <c r="H240">
+        <v>0</v>
       </c>
       <c r="I240">
         <v>16</v>
@@ -9572,8 +9543,8 @@
       <c r="C241" t="s">
         <v>254</v>
       </c>
-      <c r="D241" t="s">
-        <v>257</v>
+      <c r="D241">
+        <v>1</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -9584,8 +9555,8 @@
       <c r="G241">
         <v>90</v>
       </c>
-      <c r="H241" t="s">
-        <v>260</v>
+      <c r="H241">
+        <v>0</v>
       </c>
       <c r="I241">
         <v>14</v>
@@ -9607,8 +9578,8 @@
       <c r="C242" t="s">
         <v>254</v>
       </c>
-      <c r="D242" t="s">
-        <v>258</v>
+      <c r="D242">
+        <v>0</v>
       </c>
       <c r="E242">
         <v>-1</v>
@@ -9619,8 +9590,8 @@
       <c r="G242">
         <v>100</v>
       </c>
-      <c r="H242" t="s">
-        <v>260</v>
+      <c r="H242">
+        <v>0</v>
       </c>
       <c r="I242">
         <v>16</v>
@@ -9642,8 +9613,8 @@
       <c r="C243" t="s">
         <v>254</v>
       </c>
-      <c r="D243" t="s">
-        <v>257</v>
+      <c r="D243">
+        <v>1</v>
       </c>
       <c r="E243">
         <v>-2</v>
@@ -9654,8 +9625,8 @@
       <c r="G243">
         <v>97</v>
       </c>
-      <c r="H243" t="s">
-        <v>259</v>
+      <c r="H243">
+        <v>1</v>
       </c>
       <c r="I243">
         <v>13</v>
@@ -9677,8 +9648,8 @@
       <c r="C244" t="s">
         <v>255</v>
       </c>
-      <c r="D244" t="s">
-        <v>256</v>
+      <c r="D244">
+        <v>2</v>
       </c>
       <c r="E244">
         <v>-3.25</v>
@@ -9689,8 +9660,8 @@
       <c r="G244">
         <v>72</v>
       </c>
-      <c r="H244" t="s">
-        <v>260</v>
+      <c r="H244">
+        <v>0</v>
       </c>
       <c r="I244">
         <v>15</v>
